--- a/data/hotels_by_city/Houston/Houston_shard_326.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_326.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="469">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223641-Reviews-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Hotel-Suites-Houston-Kingwood.h519992.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1303 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r580924738-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223641</t>
+  </si>
+  <si>
+    <t>580924738</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Bedbugs and noseeums</t>
+  </si>
+  <si>
+    <t>I inspected the bed edges upon check in and found sign of bed bug feces. I continued looking and found bed bugs in different stages of growth. I caught one and took it to the front desk. The staff moved me to a room on the other end of the building. I went to Lowe’s and picked up glue traps. The new room was infested with a small biting insect. I showed the staff a gluetrap with 8-10 of the no-see-ums. I left the next day with almost a dozen bites.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>I inspected the bed edges upon check in and found sign of bed bug feces. I continued looking and found bed bugs in different stages of growth. I caught one and took it to the front desk. The staff moved me to a room on the other end of the building. I went to Lowe’s and picked up glue traps. The new room was infested with a small biting insect. I showed the staff a gluetrap with 8-10 of the no-see-ums. I left the next day with almost a dozen bites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r557225818-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557225818</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>Left in 30 minutes (and stayed too long)</t>
+  </si>
+  <si>
+    <t>Before I arrived the hotel called to say that my requested room wasn’t available.  They had a room that would work for me, so I didn’t worry; I should have. I walk into the hotel and nothing was clean and there was a strange smell. I was slightly worried, but checked in and went up to my room. The moment I stepped off the elevator, the mildew smell hit me. Getting straight to the point, they had a water pipe burst during the a recent freeze and they were still in the cleanup process. With that said, nothing was clean! Not the room, elevator, fitness center (which is horrible by the way), hallway! Nothing! I’m not real sure it was the water pipe though. Nothing I saw seemed up to par with Holiday Inn. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Before I arrived the hotel called to say that my requested room wasn’t available.  They had a room that would work for me, so I didn’t worry; I should have. I walk into the hotel and nothing was clean and there was a strange smell. I was slightly worried, but checked in and went up to my room. The moment I stepped off the elevator, the mildew smell hit me. Getting straight to the point, they had a water pipe burst during the a recent freeze and they were still in the cleanup process. With that said, nothing was clean! Not the room, elevator, fitness center (which is horrible by the way), hallway! Nothing! I’m not real sure it was the water pipe though. Nothing I saw seemed up to par with Holiday Inn. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r506164529-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506164529</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Great price - incredible breakfast</t>
+  </si>
+  <si>
+    <t>My wife and I were visiting friends in Houston and needed a reasonably priced hotel that served breakfast. We chose Holiday Inn express. The room is nice...the price was good...the breakfast was EXCELLENT!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I were visiting friends in Houston and needed a reasonably priced hotel that served breakfast. We chose Holiday Inn express. The room is nice...the price was good...the breakfast was EXCELLENT!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r445102304-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445102304</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t>Very nice and clean</t>
+  </si>
+  <si>
+    <t>Stayed here recently on a trip to visit a friend in Houston.  The staff was very nice and accommodating.  The room as well as the hotel itself was nice and clean.  The room was spacious.  Overall, it's not a bad place to stay if you are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here recently on a trip to visit a friend in Houston.  The staff was very nice and accommodating.  The room as well as the hotel itself was nice and clean.  The room was spacious.  Overall, it's not a bad place to stay if you are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r431567922-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431567922</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Average Holiday Inn</t>
+  </si>
+  <si>
+    <t>The main areas of the hotel had been recently renovated and were nice and clean. The rooms themselves were in a bit of desire. Breakfast area was nice, had eggs with cheese. Standard holiday inn experience. Cheap and worth the price of admission.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>The main areas of the hotel had been recently renovated and were nice and clean. The rooms themselves were in a bit of desire. Breakfast area was nice, had eggs with cheese. Standard holiday inn experience. Cheap and worth the price of admission.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r419326210-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419326210</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Stay away from this hotel</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel on Sep 13, 2016. When I checked in, the staff in the front desk was so unfriendly and rude. No greetings, no smiles, no welcome bags, no apologize after 15min long waiting time. He even let a patron cut off the waiting line. The evaluator was down. The room I booked was a king bed, but this staff gave to me a queen bed without any notice. I noticed that after I entered the room. But I was too tired to ask for exchange, it was midnight then!!! The hotel guest room was not comfortable at all. There was mold smell in the room. The breakfast was boring, the bacon was cold. The yogurt's taste seemed it was expired. This is the worst hotel in Houston! If you want a pleasant trip, don't choose this cheapest hotel. Even pay $10 more, you can choose other IHG hotel with more service and more welcome!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded October 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2016</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel on Sep 13, 2016. When I checked in, the staff in the front desk was so unfriendly and rude. No greetings, no smiles, no welcome bags, no apologize after 15min long waiting time. He even let a patron cut off the waiting line. The evaluator was down. The room I booked was a king bed, but this staff gave to me a queen bed without any notice. I noticed that after I entered the room. But I was too tired to ask for exchange, it was midnight then!!! The hotel guest room was not comfortable at all. There was mold smell in the room. The breakfast was boring, the bacon was cold. The yogurt's taste seemed it was expired. This is the worst hotel in Houston! If you want a pleasant trip, don't choose this cheapest hotel. Even pay $10 more, you can choose other IHG hotel with more service and more welcome!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r403368224-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403368224</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Unimpressed (A rating of 3 is too high.)</t>
+  </si>
+  <si>
+    <t>Upon arrival I was told that I would be placed in a different room than what I requested upon booking months prior. The hotel was very outdated and there was trash overflowing outside the front entrance. On some days clean towels were not available. The room was very dark and gloomy. The staff were nice enough but that didn't help when my final bill was more than it should have been.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Upon arrival I was told that I would be placed in a different room than what I requested upon booking months prior. The hotel was very outdated and there was trash overflowing outside the front entrance. On some days clean towels were not available. The room was very dark and gloomy. The staff were nice enough but that didn't help when my final bill was more than it should have been.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r393286266-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393286266</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>really should be rated 2.5</t>
+  </si>
+  <si>
+    <t>front desk staff was friendly but that was the highlight.  The hotel looks very dated even though it is not really all that old. dark carpet, paint and furnishings looked drab. Dark counters in the bathroom. The plastic tub looked a bit dirty. May not have been but that type of tub is difficult to clean.  the  bed was comfortable. A/C was ok. sleeping would have been a bit more comfortable if the temperature could have been adjusted down just a bit.  The "breakfast" was instant oatmeal and pastry. for some reason the housekeeping staff was mopping the floor in the breakfast area at 7am when people were there and the floor was slippery.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded July 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2016</t>
+  </si>
+  <si>
+    <t>front desk staff was friendly but that was the highlight.  The hotel looks very dated even though it is not really all that old. dark carpet, paint and furnishings looked drab. Dark counters in the bathroom. The plastic tub looked a bit dirty. May not have been but that type of tub is difficult to clean.  the  bed was comfortable. A/C was ok. sleeping would have been a bit more comfortable if the temperature could have been adjusted down just a bit.  The "breakfast" was instant oatmeal and pastry. for some reason the housekeeping staff was mopping the floor in the breakfast area at 7am when people were there and the floor was slippery.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r391197084-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391197084</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Joshua Aguilar = AWESOME employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here with some friends 7/9-7/10 and Josh was there to accommodate our needs. He really did go above and beyond. Definitely coming back to this location, or a different Holiday Inn Express in the future! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r379709054-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379709054</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Excellent personnel, service, bang for your buck!</t>
+  </si>
+  <si>
+    <t>I stayed for one night in this hotel. In terms of room and amenities, it is quite average hotel, but this is something that you can expect given the price. Location is excellent on the Highway 59, just north to Houston airport. Room is spacious, quiet, but perhaps needs a bit an upgrade here and there. Breakfast is free, but it is quite mediocre (but again still good value given the price). But the jewel of this property is the personnel! During the stay, I had problem with my car. And they helped me a lot to contact the rental car etc. Special thanks to Solomon and Kevin at the front desk, without them my day was just a complete disaster!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2016</t>
+  </si>
+  <si>
+    <t>I stayed for one night in this hotel. In terms of room and amenities, it is quite average hotel, but this is something that you can expect given the price. Location is excellent on the Highway 59, just north to Houston airport. Room is spacious, quiet, but perhaps needs a bit an upgrade here and there. Breakfast is free, but it is quite mediocre (but again still good value given the price). But the jewel of this property is the personnel! During the stay, I had problem with my car. And they helped me a lot to contact the rental car etc. Special thanks to Solomon and Kevin at the front desk, without them my day was just a complete disaster!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r364247784-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364247784</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Scammers</t>
+  </si>
+  <si>
+    <t>This hotel charged me for damages that I was not responsible for.  This hotel is a fraud and trying to rip people off.  I WOULD NOT STAY HERE!  I am a honest and hard working person.  I did not deserve this kind of treatment.  I asked them to email pictures of the damages that they were claiming I caused.  They never got back to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2016</t>
+  </si>
+  <si>
+    <t>This hotel charged me for damages that I was not responsible for.  This hotel is a fraud and trying to rip people off.  I WOULD NOT STAY HERE!  I am a honest and hard working person.  I did not deserve this kind of treatment.  I asked them to email pictures of the damages that they were claiming I caused.  They never got back to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r337375902-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>337375902</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>This place is slipping again</t>
+  </si>
+  <si>
+    <t>We've stayed at this hotel many times as it's quite convenient to our grandchildren and we collect IHG points. They had a low spot several years ago but are back at the bottom again.We just got back from there and there were several issues. First, upon arriving, folks who are the IHG club members are supposed to get something, either some sort of goodies or some extra club points. Nothing this visit.The second night we were there, we returned to our room to see a note left on the bed "Room cleaned by Traci". While she left a note, she neglected to leave any towels or toiletries. A trip the front desk was necessary at Midnight.The third night neither Traci nor anyone else had made up the room. It hadn't been entered that day by the staff. Another trip to the front desk for towels, etc.The next day we asked for the manager. The 'on duty' manager heard our story and offered us a $10 google play gift card.The final day they did actually clean the room.The rooms themselves are ok. Comfortable, lots of outets, wi-fi free. Since plumbing in the bathroom.Finally, the final touch. As you know if you frequent this chain, they advertise their cinnamon rolls. Not at this hotel (no yogurt either).MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2016</t>
+  </si>
+  <si>
+    <t>We've stayed at this hotel many times as it's quite convenient to our grandchildren and we collect IHG points. They had a low spot several years ago but are back at the bottom again.We just got back from there and there were several issues. First, upon arriving, folks who are the IHG club members are supposed to get something, either some sort of goodies or some extra club points. Nothing this visit.The second night we were there, we returned to our room to see a note left on the bed "Room cleaned by Traci". While she left a note, she neglected to leave any towels or toiletries. A trip the front desk was necessary at Midnight.The third night neither Traci nor anyone else had made up the room. It hadn't been entered that day by the staff. Another trip to the front desk for towels, etc.The next day we asked for the manager. The 'on duty' manager heard our story and offered us a $10 google play gift card.The final day they did actually clean the room.The rooms themselves are ok. Comfortable, lots of outets, wi-fi free. Since plumbing in the bathroom.Finally, the final touch. As you know if you frequent this chain, they advertise their cinnamon rolls. Not at this hotel (no yogurt either).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r321490852-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321490852</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>lost my connection ..stay one night</t>
+  </si>
+  <si>
+    <t>I lost my connection, so the Airline sent us to this hotel, as we arrived at 2 am there...and we Just ran into the Police taking out a guy handcuffed, even the taxi driver told us..do you want to stay here?  and the Girl at the front desk was trying her Best to control everything but we did wait a Long time before they gave us a room, elevator was not working and this Lady I think it was París was not been so nice, we were just tired, this couple with 2 Kids ask her how Long it will take as the Kids were really tired and she was just like you have to wait...we Just stayed because we didn't have more options but I was out of there at 6 am !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded October 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2015</t>
+  </si>
+  <si>
+    <t>I lost my connection, so the Airline sent us to this hotel, as we arrived at 2 am there...and we Just ran into the Police taking out a guy handcuffed, even the taxi driver told us..do you want to stay here?  and the Girl at the front desk was trying her Best to control everything but we did wait a Long time before they gave us a room, elevator was not working and this Lady I think it was París was not been so nice, we were just tired, this couple with 2 Kids ask her how Long it will take as the Kids were really tired and she was just like you have to wait...we Just stayed because we didn't have more options but I was out of there at 6 am !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r320123448-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320123448</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Great job!</t>
+  </si>
+  <si>
+    <t>Stopped by after a hospital stay, and these folks really scored some points. The desk clerk was friendly and welcoming, almost like coming home. Good value, great people, safe and secure. I even saw them escort an elderly lady out to her car after dark, just to make sure she was safe! Great job!MoreShow less</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded October 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2015</t>
+  </si>
+  <si>
+    <t>Stopped by after a hospital stay, and these folks really scored some points. The desk clerk was friendly and welcoming, almost like coming home. Good value, great people, safe and secure. I even saw them escort an elderly lady out to her car after dark, just to make sure she was safe! Great job!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r317215045-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317215045</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>Three stars is generous...</t>
+  </si>
+  <si>
+    <t>The ONLY reason I gave this property three stars is the stellar staff working at the front desk. Kudos to Leah &amp; Paris- the unfortunate state of this property must make their job difficult. 
+The property, appears to be in pretty good shape and recently renovated. The decor is decent, but the hallways smell musty and of mildew. Our first issue was that our room was on the fourth floor, however the elevator was broken and we had quite a lot of luggage. Paris kindly found us a room on the second floor, however, when we went in we found that there were towels all over the floor and one bath towel actually jammed in the toilet. We requested a different room, Paris was very apologetic and transferred us to a second room. Unfortunately, the smell of mold and mildew was so powerful in this room (room 226) that it was affecting my partner's asthma, and we had to leave the property altogether rather than chance an asthma attack. 
+It appears that this hotel experienced some serious water damage at some point and the owners, rather than repairing the problem, chose instead to cover it up. The stench in room 226 and in the second floor hallway was really terrible. Not even close to what I am accustomed to with IHG properties. 
+It's unfortunate because the staff at this property are great, the location is great and it really could...The ONLY reason I gave this property three stars is the stellar staff working at the front desk. Kudos to Leah &amp; Paris- the unfortunate state of this property must make their job difficult. The property, appears to be in pretty good shape and recently renovated. The decor is decent, but the hallways smell musty and of mildew. Our first issue was that our room was on the fourth floor, however the elevator was broken and we had quite a lot of luggage. Paris kindly found us a room on the second floor, however, when we went in we found that there were towels all over the floor and one bath towel actually jammed in the toilet. We requested a different room, Paris was very apologetic and transferred us to a second room. Unfortunately, the smell of mold and mildew was so powerful in this room (room 226) that it was affecting my partner's asthma, and we had to leave the property altogether rather than chance an asthma attack. It appears that this hotel experienced some serious water damage at some point and the owners, rather than repairing the problem, chose instead to cover it up. The stench in room 226 and in the second floor hallway was really terrible. Not even close to what I am accustomed to with IHG properties. It's unfortunate because the staff at this property are great, the location is great and it really could be an attractive property. MoreShow less</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2015</t>
+  </si>
+  <si>
+    <t>The ONLY reason I gave this property three stars is the stellar staff working at the front desk. Kudos to Leah &amp; Paris- the unfortunate state of this property must make their job difficult. 
+The property, appears to be in pretty good shape and recently renovated. The decor is decent, but the hallways smell musty and of mildew. Our first issue was that our room was on the fourth floor, however the elevator was broken and we had quite a lot of luggage. Paris kindly found us a room on the second floor, however, when we went in we found that there were towels all over the floor and one bath towel actually jammed in the toilet. We requested a different room, Paris was very apologetic and transferred us to a second room. Unfortunately, the smell of mold and mildew was so powerful in this room (room 226) that it was affecting my partner's asthma, and we had to leave the property altogether rather than chance an asthma attack. 
+It appears that this hotel experienced some serious water damage at some point and the owners, rather than repairing the problem, chose instead to cover it up. The stench in room 226 and in the second floor hallway was really terrible. Not even close to what I am accustomed to with IHG properties. 
+It's unfortunate because the staff at this property are great, the location is great and it really could...The ONLY reason I gave this property three stars is the stellar staff working at the front desk. Kudos to Leah &amp; Paris- the unfortunate state of this property must make their job difficult. The property, appears to be in pretty good shape and recently renovated. The decor is decent, but the hallways smell musty and of mildew. Our first issue was that our room was on the fourth floor, however the elevator was broken and we had quite a lot of luggage. Paris kindly found us a room on the second floor, however, when we went in we found that there were towels all over the floor and one bath towel actually jammed in the toilet. We requested a different room, Paris was very apologetic and transferred us to a second room. Unfortunately, the smell of mold and mildew was so powerful in this room (room 226) that it was affecting my partner's asthma, and we had to leave the property altogether rather than chance an asthma attack. It appears that this hotel experienced some serious water damage at some point and the owners, rather than repairing the problem, chose instead to cover it up. The stench in room 226 and in the second floor hallway was really terrible. Not even close to what I am accustomed to with IHG properties. It's unfortunate because the staff at this property are great, the location is great and it really could be an attractive property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r302946388-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>302946388</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Stay Away - Moldy and Mildew</t>
+  </si>
+  <si>
+    <t>If you are allergic to mold or mildew, stay away from this property. I have stayed at many Holiday Inns and have never stayed at one with such low standards. I tried the king room. The bed was swooping down in the middle and the room smelled awful, like mold and mildew. Then they put me in another room down the hall, queen bed this time. I thought it might be better, smelled like air freshener. When I left and came back a couple of hours later, same smell.  I was to stay 2 weeks, but I could not even make it through the night. When I left early the next morning, I was sick. All mattress are very cheap, no padding, springs have no support. You just sink when you sit down. I do not understand the good reviews on this property at all. Although the staff if so very nice, it is a very smelly hotel. (An staff member told me it was the ACs, they were old)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>If you are allergic to mold or mildew, stay away from this property. I have stayed at many Holiday Inns and have never stayed at one with such low standards. I tried the king room. The bed was swooping down in the middle and the room smelled awful, like mold and mildew. Then they put me in another room down the hall, queen bed this time. I thought it might be better, smelled like air freshener. When I left and came back a couple of hours later, same smell.  I was to stay 2 weeks, but I could not even make it through the night. When I left early the next morning, I was sick. All mattress are very cheap, no padding, springs have no support. You just sink when you sit down. I do not understand the good reviews on this property at all. Although the staff if so very nice, it is a very smelly hotel. (An staff member told me it was the ACs, they were old)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r297207572-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>297207572</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Awesome! Wish I could stay longer...</t>
+  </si>
+  <si>
+    <t>Thanks to Hotwire for giving me the chance to stay in this hotel for 2 nights! I wanted to stay longer. Staff were all great, specially Floyd, at the front desk. It's right next to the (popular) Kingwood Hospital. The surrounding area is very nice, as well. I like it much better than The Woodlands/I-45 area.  I highly recommend this hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r284910195-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284910195</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>CLEAN HOTEL CLEAN HOTEL CLEAN HOTEL!!!!!!!</t>
+  </si>
+  <si>
+    <t>I was looking for a very CLEAN little hotel at a moderate price close to the medical arts building in Humble. This was the best choice! I requested  a double room for my sister and I. The adjoining door was really convient for us. The hotel was recently reburbished and everything was very very clean and smelled fresh. I never take my shoes off in any hotel room, but the carpet looked really clean. The beds were NOT covered with bedspreads, but lite comforters that they wash for each guest so ALL of the linins are fresh and clean. Bright white towels that were generous in size...Clean, modern bathroom.....It is a small hotel and the staff is accessable and friendly. Their breakfast was good with all of the normal selections, but there is a Dennys right next door and if you show them your key you get 15% off any of your meals! Get a room on the side away from the freeway and it will be quiet. The beds are really comfortable and the pillows were perfect. We were only there for a night, but I would stay there again in a heart beat. They staff really went over the top to make sure we were comfortable. I never met anyone with an attitude other then..."How can we serve you and make your stay more comfortable." The price wasa the same on Priceline and other sites like that as...I was looking for a very CLEAN little hotel at a moderate price close to the medical arts building in Humble. This was the best choice! I requested  a double room for my sister and I. The adjoining door was really convient for us. The hotel was recently reburbished and everything was very very clean and smelled fresh. I never take my shoes off in any hotel room, but the carpet looked really clean. The beds were NOT covered with bedspreads, but lite comforters that they wash for each guest so ALL of the linins are fresh and clean. Bright white towels that were generous in size...Clean, modern bathroom.....It is a small hotel and the staff is accessable and friendly. Their breakfast was good with all of the normal selections, but there is a Dennys right next door and if you show them your key you get 15% off any of your meals! Get a room on the side away from the freeway and it will be quiet. The beds are really comfortable and the pillows were perfect. We were only there for a night, but I would stay there again in a heart beat. They staff really went over the top to make sure we were comfortable. I never met anyone with an attitude other then..."How can we serve you and make your stay more comfortable." The price wasa the same on Priceline and other sites like that as the hotel...So call the hotel. ; ) MoreShow less</t>
+  </si>
+  <si>
+    <t>I was looking for a very CLEAN little hotel at a moderate price close to the medical arts building in Humble. This was the best choice! I requested  a double room for my sister and I. The adjoining door was really convient for us. The hotel was recently reburbished and everything was very very clean and smelled fresh. I never take my shoes off in any hotel room, but the carpet looked really clean. The beds were NOT covered with bedspreads, but lite comforters that they wash for each guest so ALL of the linins are fresh and clean. Bright white towels that were generous in size...Clean, modern bathroom.....It is a small hotel and the staff is accessable and friendly. Their breakfast was good with all of the normal selections, but there is a Dennys right next door and if you show them your key you get 15% off any of your meals! Get a room on the side away from the freeway and it will be quiet. The beds are really comfortable and the pillows were perfect. We were only there for a night, but I would stay there again in a heart beat. They staff really went over the top to make sure we were comfortable. I never met anyone with an attitude other then..."How can we serve you and make your stay more comfortable." The price wasa the same on Priceline and other sites like that as...I was looking for a very CLEAN little hotel at a moderate price close to the medical arts building in Humble. This was the best choice! I requested  a double room for my sister and I. The adjoining door was really convient for us. The hotel was recently reburbished and everything was very very clean and smelled fresh. I never take my shoes off in any hotel room, but the carpet looked really clean. The beds were NOT covered with bedspreads, but lite comforters that they wash for each guest so ALL of the linins are fresh and clean. Bright white towels that were generous in size...Clean, modern bathroom.....It is a small hotel and the staff is accessable and friendly. Their breakfast was good with all of the normal selections, but there is a Dennys right next door and if you show them your key you get 15% off any of your meals! Get a room on the side away from the freeway and it will be quiet. The beds are really comfortable and the pillows were perfect. We were only there for a night, but I would stay there again in a heart beat. They staff really went over the top to make sure we were comfortable. I never met anyone with an attitude other then..."How can we serve you and make your stay more comfortable." The price wasa the same on Priceline and other sites like that as the hotel...So call the hotel. ; ) More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r250849191-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250849191</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Very clean " </t>
+  </si>
+  <si>
+    <t>Hotel was clean and neat and lady in front desk Twanda I believe is her name was very courteous and polite . she thought our son was the cutest thing ever and she went out of her way to get him a little gift. Will definitely recommend this hotel. "  .MoreShow less</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Hotel was clean and neat and lady in front desk Twanda I believe is her name was very courteous and polite . she thought our son was the cutest thing ever and she went out of her way to get him a little gift. Will definitely recommend this hotel. "  .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r244756422-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244756422</t>
+  </si>
+  <si>
+    <t>12/16/2014</t>
+  </si>
+  <si>
+    <t>Perfect Gem 25 minutes or less from Downtown Houstein</t>
+  </si>
+  <si>
+    <t>I do not review often, but after two weeks here I must, The rooms are fantastic the staff is impeccable and the location and price cannot be any better. For a business or casual traveler on a budget or trying to keep a budget this hotel is perfect! Traffic into downtown is not bad at all, no matter what time, there are many great shopping options and dining options within 10 minutes or less. I wish this hotel was available on all my trips, I stay 150+ nights a year at the IHG brand and I will miss this place onto my next job.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r243929625-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243929625</t>
+  </si>
+  <si>
+    <t>12/10/2014</t>
+  </si>
+  <si>
+    <t>Was OK</t>
+  </si>
+  <si>
+    <t>Hotel was friendly and clean good location to shopping and restaurants. The road noise is all night long which made it hard to sleep. Only two towels and washcloths along with the shower head being so low. If you are over 5'5" you will have a hard time with it. Bed was very soft.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r231326760-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231326760</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>Just okay</t>
+  </si>
+  <si>
+    <t>I found it hard to sleep with the highway so close by out the front, no blackout curtains, and a clunky AC unit. But the staff was friendly, the location was good for early morning airport access, the breakfast was decent, and the price was good. Overall an okay place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded October 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2014</t>
+  </si>
+  <si>
+    <t>I found it hard to sleep with the highway so close by out the front, no blackout curtains, and a clunky AC unit. But the staff was friendly, the location was good for early morning airport access, the breakfast was decent, and the price was good. Overall an okay place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r230032557-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>230032557</t>
+  </si>
+  <si>
+    <t>09/20/2014</t>
+  </si>
+  <si>
+    <t>Better this time</t>
+  </si>
+  <si>
+    <t>We visit our grandchildren in Kingwood frequently and often stay in this hotel. My last review was very negative. I was contacted by the manager who promised improvement, so we tried it again. It was a typical Holiday Inn Express hotel. The room was fine, the service was fine this time.It's nothing special, but ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2014</t>
+  </si>
+  <si>
+    <t>We visit our grandchildren in Kingwood frequently and often stay in this hotel. My last review was very negative. I was contacted by the manager who promised improvement, so we tried it again. It was a typical Holiday Inn Express hotel. The room was fine, the service was fine this time.It's nothing special, but ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r226333989-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226333989</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>This hotel was awesome!  The room was wonderful. The bed was perfect.  I thouroughy enjoyed the staf, both at night and during the day. They were very friendly and helpful. And the "continental" breakfast was out of this world.  I would definitely recommend this to everyone!!</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r208610443-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208610443</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>Very clean, staff was awesome!</t>
+  </si>
+  <si>
+    <t>I was skeptical after our last stay at the Holiday Inn in Kemah, but decided to give the Kingwood location a try.  I was very pleased!  The room was clean, the staff was awesome, and the bed was extremely comfortable (which it was not in Kemah!!!).  So glad we chose Holiday Inn Express for our night away (we have adult children living at home!).</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r204038786-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204038786</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>Started off as a 4 1/2 Star</t>
+  </si>
+  <si>
+    <t>With an emergency trip to Houston, the receptionist was welcoming and warm in assisting us in accommodating our late needed stay. Room was good, however bathroom was alright but needed a slight makeover. The next morning, the elevator broke (a woman and her 3 kids were in it) and we were on the 3rd floor. The complimentary breakfast was depleted by 9:00 am. I notice the front desk woman was responsible for the breakfast area, cleaning, answering phones and trying to do her main job at the front desk. The second night, took stairs to the 3rd floor to come to find out the key wouldn't work so I went back downstairs and got another key. Backup to the room and that key didn't work. (You see the pattern). Finally the third time is the charm and the key worked. However, the next morning at 7:30, breakfast was a big strikeout. The only thing consistent was the traditional Holiday Inn cinnamon rolls. They hotel seemed under staffed, but they remained friendly. I would actually give the hotel a 2 1/2 star.   MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded May 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2014</t>
+  </si>
+  <si>
+    <t>With an emergency trip to Houston, the receptionist was welcoming and warm in assisting us in accommodating our late needed stay. Room was good, however bathroom was alright but needed a slight makeover. The next morning, the elevator broke (a woman and her 3 kids were in it) and we were on the 3rd floor. The complimentary breakfast was depleted by 9:00 am. I notice the front desk woman was responsible for the breakfast area, cleaning, answering phones and trying to do her main job at the front desk. The second night, took stairs to the 3rd floor to come to find out the key wouldn't work so I went back downstairs and got another key. Backup to the room and that key didn't work. (You see the pattern). Finally the third time is the charm and the key worked. However, the next morning at 7:30, breakfast was a big strikeout. The only thing consistent was the traditional Holiday Inn cinnamon rolls. They hotel seemed under staffed, but they remained friendly. I would actually give the hotel a 2 1/2 star.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r199926450-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199926450</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>Houston Layover</t>
+  </si>
+  <si>
+    <t>My wife and I had layovers in Houston on a recent trip to Mexico.  We chose the Kingwood location to get a little distance from airport noise.  We were pleasantly surprised that a free airport shuttle was available, and the shuttle also dropped us off at a local restaurant for dinner.  The room was quite comfortable, and quiet, as it faced away from the highway.  Breakfast was typical of other HI Express locations we used.  I love the pancake machine!!All encounters with the staff were very pleasant!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>My wife and I had layovers in Houston on a recent trip to Mexico.  We chose the Kingwood location to get a little distance from airport noise.  We were pleasantly surprised that a free airport shuttle was available, and the shuttle also dropped us off at a local restaurant for dinner.  The room was quite comfortable, and quiet, as it faced away from the highway.  Breakfast was typical of other HI Express locations we used.  I love the pancake machine!!All encounters with the staff were very pleasant!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r195362940-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195362940</t>
+  </si>
+  <si>
+    <t>02/25/2014</t>
+  </si>
+  <si>
+    <t>Would certainly stay here again</t>
+  </si>
+  <si>
+    <t>Helpful welcoming staff with complementary airport shuttle (unlike $20 round trip for one of your competitors). Extremely spacious suites with all facilities, coffee makers, fridge, etc. We booked the airport shuttle for 6.15am and breakfast started at 6, but they specially put it a bit early for us which is a nice attentive touch. This was an overnight flight layover on international transit, but we're likely to be doing something similar again, so would certainly come back here.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded February 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2014</t>
+  </si>
+  <si>
+    <t>Helpful welcoming staff with complementary airport shuttle (unlike $20 round trip for one of your competitors). Extremely spacious suites with all facilities, coffee makers, fridge, etc. We booked the airport shuttle for 6.15am and breakfast started at 6, but they specially put it a bit early for us which is a nice attentive touch. This was an overnight flight layover on international transit, but we're likely to be doing something similar again, so would certainly come back here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r194611032-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194611032</t>
+  </si>
+  <si>
+    <t>02/19/2014</t>
+  </si>
+  <si>
+    <t>Stayed for a few nights</t>
+  </si>
+  <si>
+    <t>Visiting Kingwood on Business, The Holiday Inn is a basic hotel.Recently remodled rooms were good, but Bathroom other than a new paint Job were the same as before.Free Breakfast in the Morning was good, but after a few days visited the Resturant attached (Not Holiday Inn) to have some choiceStaff were ok, but not overly attentiveFor a basic Hotel right on the main road the Holiday Inn is a good choiceMoreShow less</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded February 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2014</t>
+  </si>
+  <si>
+    <t>Visiting Kingwood on Business, The Holiday Inn is a basic hotel.Recently remodled rooms were good, but Bathroom other than a new paint Job were the same as before.Free Breakfast in the Morning was good, but after a few days visited the Resturant attached (Not Holiday Inn) to have some choiceStaff were ok, but not overly attentiveFor a basic Hotel right on the main road the Holiday Inn is a good choiceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r182762754-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182762754</t>
+  </si>
+  <si>
+    <t>10/28/2013</t>
+  </si>
+  <si>
+    <t>Been to Better Hotels</t>
+  </si>
+  <si>
+    <t>It looks like most of the construction has been completed and any remaining remodeling (curtains, beds, carpet) which is supposed to last until the end of the month shouldn't interfere with sleeping. In fact it was quiet all the time that I was at the hotel. The airport shuttle operates on an on needed basis between 5:45am - 10:00pm, so if you plan on using it, make sure to call the hotel to confirm! I didn't have a problem getting the shuttle from the airport, but I won't be able to use it to get to the airport as my flight leaves to early! The driver was very friendly, and quite talkative. When I checked in, there was a slight issue with my room being ready (I came prior to the check-in time). The worker was very contentious, courteous, and helpful. She got me into a different room without too much difficulty.The next day I asked about the airport shuttle and found out about the schedule. I asked about the next best way to get to the airport, and she "helpfully" replied 'taxi'. She did not offer any other options, nor did she offer the number to the taxi. This was a different front desk worker, and did not seem to understand the concept of customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded October 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2013</t>
+  </si>
+  <si>
+    <t>It looks like most of the construction has been completed and any remaining remodeling (curtains, beds, carpet) which is supposed to last until the end of the month shouldn't interfere with sleeping. In fact it was quiet all the time that I was at the hotel. The airport shuttle operates on an on needed basis between 5:45am - 10:00pm, so if you plan on using it, make sure to call the hotel to confirm! I didn't have a problem getting the shuttle from the airport, but I won't be able to use it to get to the airport as my flight leaves to early! The driver was very friendly, and quite talkative. When I checked in, there was a slight issue with my room being ready (I came prior to the check-in time). The worker was very contentious, courteous, and helpful. She got me into a different room without too much difficulty.The next day I asked about the airport shuttle and found out about the schedule. I asked about the next best way to get to the airport, and she "helpfully" replied 'taxi'. She did not offer any other options, nor did she offer the number to the taxi. This was a different front desk worker, and did not seem to understand the concept of customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r170566291-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170566291</t>
+  </si>
+  <si>
+    <t>08/03/2013</t>
+  </si>
+  <si>
+    <t>Awful Awful Awful</t>
+  </si>
+  <si>
+    <t>Stayed here on a Tueday evening after flying into IAH. OK it was in the middle of a downstairs refurb but..................  My room doors had just been painted and were still sticky and the paint smelled, was the receptionist interested? Nope... Managed to change to the only room available, right next to the lobby and elevator, Tired and worn is being polite. Breakfast was awful, over ripe bananas that turned to much on handling, over cooked fat meat patties .... at least they couldn't get the toast wrong!All this hassle and I'm an IHG Gold member so I fear for those regular stayers!There are so many far better hotels in Houston, avoid this place like the plague!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded August 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here on a Tueday evening after flying into IAH. OK it was in the middle of a downstairs refurb but..................  My room doors had just been painted and were still sticky and the paint smelled, was the receptionist interested? Nope... Managed to change to the only room available, right next to the lobby and elevator, Tired and worn is being polite. Breakfast was awful, over ripe bananas that turned to much on handling, over cooked fat meat patties .... at least they couldn't get the toast wrong!All this hassle and I'm an IHG Gold member so I fear for those regular stayers!There are so many far better hotels in Houston, avoid this place like the plague!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r169728233-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169728233</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>The hotel shuttle and the location was really what pushed me to choose to stay here; I was in town for wedding in Kingwood and couldn't rent a car because of young driver fees. Debbie was really helpful with making sure I got on the shuttle. They have a deal with the Denny's next door for 15% off your meal, which was really nice. The construction seemed to be contained within a small area.
+The next day, however, things went a little south. I nicked my toe shaving, so I called up to the front desk. No answer. And I let it ring. So, I hung up and tried again. Still no answer. I had to punch in the actual hotel phone number to get someone, and they said they would bring me a band-aid. I got some...45 min later. By that time, I really didn't need it anymore. At a brunch, I found out a fellow wedding-attendee was staying on the 3rd floor and discovered that while my room on the first floor was complete with renovations, her's was not. Part of the floor was un- or freshly painted, and the room numbers were on the floor beside the doors, propped up against the wall. When I got back to the hotel in the afternoon, I decided to make a cup of coffee. I ended up having to clean the inside myself, because there was a thin layer of...The hotel shuttle and the location was really what pushed me to choose to stay here; I was in town for wedding in Kingwood and couldn't rent a car because of young driver fees. Debbie was really helpful with making sure I got on the shuttle. They have a deal with the Denny's next door for 15% off your meal, which was really nice. The construction seemed to be contained within a small area.The next day, however, things went a little south. I nicked my toe shaving, so I called up to the front desk. No answer. And I let it ring. So, I hung up and tried again. Still no answer. I had to punch in the actual hotel phone number to get someone, and they said they would bring me a band-aid. I got some...45 min later. By that time, I really didn't need it anymore. At a brunch, I found out a fellow wedding-attendee was staying on the 3rd floor and discovered that while my room on the first floor was complete with renovations, her's was not. Part of the floor was un- or freshly painted, and the room numbers were on the floor beside the doors, propped up against the wall. When I got back to the hotel in the afternoon, I decided to make a cup of coffee. I ended up having to clean the inside myself, because there was a thin layer of what looked like dust in the area where you pour the water.Overall, it was an okay hotel. I feel that once the renovations are finished, it won't seem so bad. They still need to work on service some.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded August 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2013</t>
+  </si>
+  <si>
+    <t>The hotel shuttle and the location was really what pushed me to choose to stay here; I was in town for wedding in Kingwood and couldn't rent a car because of young driver fees. Debbie was really helpful with making sure I got on the shuttle. They have a deal with the Denny's next door for 15% off your meal, which was really nice. The construction seemed to be contained within a small area.
+The next day, however, things went a little south. I nicked my toe shaving, so I called up to the front desk. No answer. And I let it ring. So, I hung up and tried again. Still no answer. I had to punch in the actual hotel phone number to get someone, and they said they would bring me a band-aid. I got some...45 min later. By that time, I really didn't need it anymore. At a brunch, I found out a fellow wedding-attendee was staying on the 3rd floor and discovered that while my room on the first floor was complete with renovations, her's was not. Part of the floor was un- or freshly painted, and the room numbers were on the floor beside the doors, propped up against the wall. When I got back to the hotel in the afternoon, I decided to make a cup of coffee. I ended up having to clean the inside myself, because there was a thin layer of...The hotel shuttle and the location was really what pushed me to choose to stay here; I was in town for wedding in Kingwood and couldn't rent a car because of young driver fees. Debbie was really helpful with making sure I got on the shuttle. They have a deal with the Denny's next door for 15% off your meal, which was really nice. The construction seemed to be contained within a small area.The next day, however, things went a little south. I nicked my toe shaving, so I called up to the front desk. No answer. And I let it ring. So, I hung up and tried again. Still no answer. I had to punch in the actual hotel phone number to get someone, and they said they would bring me a band-aid. I got some...45 min later. By that time, I really didn't need it anymore. At a brunch, I found out a fellow wedding-attendee was staying on the 3rd floor and discovered that while my room on the first floor was complete with renovations, her's was not. Part of the floor was un- or freshly painted, and the room numbers were on the floor beside the doors, propped up against the wall. When I got back to the hotel in the afternoon, I decided to make a cup of coffee. I ended up having to clean the inside myself, because there was a thin layer of what looked like dust in the area where you pour the water.Overall, it was an okay hotel. I feel that once the renovations are finished, it won't seem so bad. They still need to work on service some.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r165905169-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165905169</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>Very convenient to Kingwood medical center...</t>
+  </si>
+  <si>
+    <t>Most of my reviews are positive, but this one...not so much.  Due to a family member being in the hospital, we needed to stay close to the hospital. We had stayed at a holiday inn express before and it was one of the nicest places! The best I can say is that it was convenient. Renovations are underway, but it looks like they are taking their own sweet time. In the state that the hotel is in right now, I would not recommend it UNLESS you needed convince to the hospital.  there is a Candlewood Suites near too. I would try it next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded July 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2013</t>
+  </si>
+  <si>
+    <t>Most of my reviews are positive, but this one...not so much.  Due to a family member being in the hospital, we needed to stay close to the hospital. We had stayed at a holiday inn express before and it was one of the nicest places! The best I can say is that it was convenient. Renovations are underway, but it looks like they are taking their own sweet time. In the state that the hotel is in right now, I would not recommend it UNLESS you needed convince to the hospital.  there is a Candlewood Suites near too. I would try it next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r156014729-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156014729</t>
+  </si>
+  <si>
+    <t>03/29/2013</t>
+  </si>
+  <si>
+    <t>Nothing special, for a airport hotel</t>
+  </si>
+  <si>
+    <t>Spent one night at this HI EX. It is about 20 minutes away from the airport and you must call the hotel for pickup. Check-in ok, desk clerk friendly. Was on the 3rd floor, at at this time, this floor is being remodeled. There is dust every where, on the door handles, on the ke card reader etc and there were small pieces of gyp rock inside my room. Queen bed, which was not that comfortable, mini fridge, microwave, flat screen TV and free wifi. Bathroom was clean. A free breakfast was included, which was ok, hot and cold foods. There is also a swimming pool. I would probably opt for a stay closer to the airport if I had to overnight again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Arturo C C, Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded April 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2013</t>
+  </si>
+  <si>
+    <t>Spent one night at this HI EX. It is about 20 minutes away from the airport and you must call the hotel for pickup. Check-in ok, desk clerk friendly. Was on the 3rd floor, at at this time, this floor is being remodeled. There is dust every where, on the door handles, on the ke card reader etc and there were small pieces of gyp rock inside my room. Queen bed, which was not that comfortable, mini fridge, microwave, flat screen TV and free wifi. Bathroom was clean. A free breakfast was included, which was ok, hot and cold foods. There is also a swimming pool. I would probably opt for a stay closer to the airport if I had to overnight again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r154290427-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154290427</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>Just a bunch of annoying things</t>
+  </si>
+  <si>
+    <t>The staff here is nice BUT otherwise just pretty bad. First off right now (March 2013) they're under MAJOR renovations. The desk staff were happily telling customers checking in about it, talking about how nice its going to be. I'm glad they're happy about it, but hey, I'm here now and the LAST thing I want to see when I check in to a hotel is the fact that its under construction. Especially when I wasn't told about it when I made the reservation two days ago. I would've gone elsewhere.
+I also requested a top floor room away from the elevator. I'm a Priority Club Gold, and while I don't expect to be treated like a king I do expect little requests like that to be accommodated. Of course they had me on the second floor, so I asked to be moved, then after a VERY long time checking was told there weren't any rooms available on the third floor. Of course in all the time it took then to check I read the other paperwork on the desk and there was an expedia customers paperwork (not checked in yet) sitting there with a third floor room. So I said, "well give me this room, they're not here yet." And of course they did, but I shouldn't have to ask that many times.
+Now I'm up in my room and guess what. TV totally doesn't work. Just called down...The staff here is nice BUT otherwise just pretty bad. First off right now (March 2013) they're under MAJOR renovations. The desk staff were happily telling customers checking in about it, talking about how nice its going to be. I'm glad they're happy about it, but hey, I'm here now and the LAST thing I want to see when I check in to a hotel is the fact that its under construction. Especially when I wasn't told about it when I made the reservation two days ago. I would've gone elsewhere.I also requested a top floor room away from the elevator. I'm a Priority Club Gold, and while I don't expect to be treated like a king I do expect little requests like that to be accommodated. Of course they had me on the second floor, so I asked to be moved, then after a VERY long time checking was told there weren't any rooms available on the third floor. Of course in all the time it took then to check I read the other paperwork on the desk and there was an expedia customers paperwork (not checked in yet) sitting there with a third floor room. So I said, "well give me this room, they're not here yet." And of course they did, but I shouldn't have to ask that many times.Now I'm up in my room and guess what. TV totally doesn't work. Just called down to the desk and was told they know and they're working on it. Well, actually that they're waiting for the guy from DISH to come and fix it. Again, I overheard them talking about their DISH account while I was checking in (did I mention it seemed to take forever). Why didn't they say anything? I got up to my room turned on the tv and then messed around with it for five minutes thinking I was doing something wrong. THEN I called down. All minor (I guess, under construction and no tv are maybe pretty big issues). But all add up to a very annoying stay so far. Thankfully the internet is working so while I'm waiting for the TV to go on I'll just post negative reviews about my experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arturo C C, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded March 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2013</t>
+  </si>
+  <si>
+    <t>The staff here is nice BUT otherwise just pretty bad. First off right now (March 2013) they're under MAJOR renovations. The desk staff were happily telling customers checking in about it, talking about how nice its going to be. I'm glad they're happy about it, but hey, I'm here now and the LAST thing I want to see when I check in to a hotel is the fact that its under construction. Especially when I wasn't told about it when I made the reservation two days ago. I would've gone elsewhere.
+I also requested a top floor room away from the elevator. I'm a Priority Club Gold, and while I don't expect to be treated like a king I do expect little requests like that to be accommodated. Of course they had me on the second floor, so I asked to be moved, then after a VERY long time checking was told there weren't any rooms available on the third floor. Of course in all the time it took then to check I read the other paperwork on the desk and there was an expedia customers paperwork (not checked in yet) sitting there with a third floor room. So I said, "well give me this room, they're not here yet." And of course they did, but I shouldn't have to ask that many times.
+Now I'm up in my room and guess what. TV totally doesn't work. Just called down...The staff here is nice BUT otherwise just pretty bad. First off right now (March 2013) they're under MAJOR renovations. The desk staff were happily telling customers checking in about it, talking about how nice its going to be. I'm glad they're happy about it, but hey, I'm here now and the LAST thing I want to see when I check in to a hotel is the fact that its under construction. Especially when I wasn't told about it when I made the reservation two days ago. I would've gone elsewhere.I also requested a top floor room away from the elevator. I'm a Priority Club Gold, and while I don't expect to be treated like a king I do expect little requests like that to be accommodated. Of course they had me on the second floor, so I asked to be moved, then after a VERY long time checking was told there weren't any rooms available on the third floor. Of course in all the time it took then to check I read the other paperwork on the desk and there was an expedia customers paperwork (not checked in yet) sitting there with a third floor room. So I said, "well give me this room, they're not here yet." And of course they did, but I shouldn't have to ask that many times.Now I'm up in my room and guess what. TV totally doesn't work. Just called down to the desk and was told they know and they're working on it. Well, actually that they're waiting for the guy from DISH to come and fix it. Again, I overheard them talking about their DISH account while I was checking in (did I mention it seemed to take forever). Why didn't they say anything? I got up to my room turned on the tv and then messed around with it for five minutes thinking I was doing something wrong. THEN I called down. All minor (I guess, under construction and no tv are maybe pretty big issues). But all add up to a very annoying stay so far. Thankfully the internet is working so while I'm waiting for the TV to go on I'll just post negative reviews about my experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r153977984-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153977984</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>Wonderful Experience</t>
+  </si>
+  <si>
+    <t>My boyfriend and I spent the weekend at this hotel two weeks ago.  The staff was friendly, the general manager very helpful, and the nightly price was extremely affordable.  The distance to and from the airport, and the airport shuttle was very helpful.  With a lot of experiences with hotels world-wide, I would say that this was a very pleasant surprise.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>My boyfriend and I spent the weekend at this hotel two weeks ago.  The staff was friendly, the general manager very helpful, and the nightly price was extremely affordable.  The distance to and from the airport, and the airport shuttle was very helpful.  With a lot of experiences with hotels world-wide, I would say that this was a very pleasant surprise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r143726216-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143726216</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>We have stayed here before.  Bed not too bad.  Hotel is convenient to get to other areas - you don't have to stay on the feeder or get on the freeway to get anywhere.  There is a road out of the parking lot in the back that gets you around to Kingwood Drive.  Only problem was the hotel shuttle was parking in the front and you couldn't drive in to check in.  Staff was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Arturo C C, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded November 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2012</t>
+  </si>
+  <si>
+    <t>We have stayed here before.  Bed not too bad.  Hotel is convenient to get to other areas - you don't have to stay on the feeder or get on the freeway to get anywhere.  There is a road out of the parking lot in the back that gets you around to Kingwood Drive.  Only problem was the hotel shuttle was parking in the front and you couldn't drive in to check in.  Staff was friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r143394389-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143394389</t>
+  </si>
+  <si>
+    <t>10/21/2012</t>
+  </si>
+  <si>
+    <t>Nothing special</t>
+  </si>
+  <si>
+    <t>We were here for 4 nights with a large group. The rooms were fine, but nothing special. The water in our shower didn't get very hot and the water pressure wasn't great. Pillows were a little lumpy and the mattress was kindof hard. It served its purpose of providing us with a place to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were here for 4 nights with a large group. The rooms were fine, but nothing special. The water in our shower didn't get very hot and the water pressure wasn't great. Pillows were a little lumpy and the mattress was kindof hard. It served its purpose of providing us with a place to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r138326306-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138326306</t>
+  </si>
+  <si>
+    <t>08/25/2012</t>
+  </si>
+  <si>
+    <t>Great Experience!</t>
+  </si>
+  <si>
+    <t>My family and I recently stayed a week at this facility and had an wonderful experience.  The rooms were ready when we checked in, they were nice and clean, and larger than most.  The staff from the Manager, Arturo Canales, and Group Sales Manger, Linda Traylor, and the rest of the staff went above and beyond every day to make it a great stay.  The hotel was mostly occupied by AAU Track Athletes during this week - the pool and grass area by the pool were a great gathering place for these kids. I would stay here again if I am in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>My family and I recently stayed a week at this facility and had an wonderful experience.  The rooms were ready when we checked in, they were nice and clean, and larger than most.  The staff from the Manager, Arturo Canales, and Group Sales Manger, Linda Traylor, and the rest of the staff went above and beyond every day to make it a great stay.  The hotel was mostly occupied by AAU Track Athletes during this week - the pool and grass area by the pool were a great gathering place for these kids. I would stay here again if I am in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r133215954-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133215954</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>Mr. Ajith Hebbar from India</t>
+  </si>
+  <si>
+    <t>I came down here for attending conference, i stayed here for 11 nights. The hotel is wonderful. Staff was very very good and helping at the front desk, housekeeping staff also equally good, quiet place thouh there is a noisy freeway nextdoor. Good breakfast, Juices available all the day, Gym, swpool.Provided shuttle service (free) to nearest mall and airport. Overall it is quited good experience here. I advise visitiors ,sure this could be your place of stay next timeMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2012</t>
+  </si>
+  <si>
+    <t>I came down here for attending conference, i stayed here for 11 nights. The hotel is wonderful. Staff was very very good and helping at the front desk, housekeeping staff also equally good, quiet place thouh there is a noisy freeway nextdoor. Good breakfast, Juices available all the day, Gym, swpool.Provided shuttle service (free) to nearest mall and airport. Overall it is quited good experience here. I advise visitiors ,sure this could be your place of stay next timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r132983498-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132983498</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>Not up the Holiday Inn standards</t>
+  </si>
+  <si>
+    <t>Soent two nights at this hotel for buisness. Noticed black mold on ceiling above shower and a used tissue in the toilet when I arrived. First morning at breakfast I went to get a yogurt and some milk for my cereal. Had to dig to the back of the cooler to find something that was not expired. My co-worker was not as lucky, he grabed a milk and drank it. A few minutes later he became ill. I told the attendanyt, she said nothing, just walked over to the cooler and started removing the milk. The next mrning we made plans to eat somewhere for obvious reasons. But I stopped and check the mikl in the cooler, most was expired by at least one day. As I was looking at the milk I heard a mother tell her young child not to eat her cereal because she could smell the sore milk. Someone is going to get very ill if they do not straighten this out. Will not be staying here next trip to Houston. I stay at allot of Holiday Inn properties, and this was the worst.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded July 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2012</t>
+  </si>
+  <si>
+    <t>Soent two nights at this hotel for buisness. Noticed black mold on ceiling above shower and a used tissue in the toilet when I arrived. First morning at breakfast I went to get a yogurt and some milk for my cereal. Had to dig to the back of the cooler to find something that was not expired. My co-worker was not as lucky, he grabed a milk and drank it. A few minutes later he became ill. I told the attendanyt, she said nothing, just walked over to the cooler and started removing the milk. The next mrning we made plans to eat somewhere for obvious reasons. But I stopped and check the mikl in the cooler, most was expired by at least one day. As I was looking at the milk I heard a mother tell her young child not to eat her cereal because she could smell the sore milk. Someone is going to get very ill if they do not straighten this out. Will not be staying here next trip to Houston. I stay at allot of Holiday Inn properties, and this was the worst.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r132314365-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132314365</t>
+  </si>
+  <si>
+    <t>06/19/2012</t>
+  </si>
+  <si>
+    <t>One of our favorite places in Texas</t>
+  </si>
+  <si>
+    <t>We stay at this hotel each time we come to Houston. It is very quiet.  The staff are amazing, so welcoming and caring about their customers, also very helpful. The rooms are perfect, clean and beautiful. Breakfast offers various foods. The swimming pool is not too small and faces woods in the beautiful suburb  of Kingwood. There is a restaurant just beside the hotel. I recommend this hotel to any traveller and my friendsMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2012</t>
+  </si>
+  <si>
+    <t>We stay at this hotel each time we come to Houston. It is very quiet.  The staff are amazing, so welcoming and caring about their customers, also very helpful. The rooms are perfect, clean and beautiful. Breakfast offers various foods. The swimming pool is not too small and faces woods in the beautiful suburb  of Kingwood. There is a restaurant just beside the hotel. I recommend this hotel to any traveller and my friendsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r131688717-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131688717</t>
+  </si>
+  <si>
+    <t>06/10/2012</t>
+  </si>
+  <si>
+    <t>Fine, not special</t>
+  </si>
+  <si>
+    <t>Was here for 2 nights on business.  Stayed in another similar hotel last time and wasn't impressed.  This is clean and nice enough.  Kind of sparse in the bedroom.  Breakfast OK.  So, not raving about it but not saying avoid it.  Staff was nice.  Price was very reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>HAMPDP, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded June 21, 2012</t>
+  </si>
+  <si>
+    <t>Was here for 2 nights on business.  Stayed in another similar hotel last time and wasn't impressed.  This is clean and nice enough.  Kind of sparse in the bedroom.  Breakfast OK.  So, not raving about it but not saying avoid it.  Staff was nice.  Price was very reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r129329107-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129329107</t>
+  </si>
+  <si>
+    <t>05/03/2012</t>
+  </si>
+  <si>
+    <t>Always great Customer Service</t>
+  </si>
+  <si>
+    <t>I live in Ohio and I have business in Texas, I love holiday kingwood inn is close to the airport and has shuttel free, very cheap rate, very good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>HAMPDP, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded May 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2012</t>
+  </si>
+  <si>
+    <t>I live in Ohio and I have business in Texas, I love holiday kingwood inn is close to the airport and has shuttel free, very cheap rate, very good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r119918571-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119918571</t>
+  </si>
+  <si>
+    <t>10/30/2011</t>
+  </si>
+  <si>
+    <t>Amazing staff-definitely will return</t>
+  </si>
+  <si>
+    <t>great location! the shuttle is awesome-the guys are on time and they are very pleasant! room was super clean and a good size! i needed towels-they brought them up right away! the staff is amazing here and everyone is so kind! the continental breakfast just adds to the value! definitely stay here if you are stopping in houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>HAMPDP, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded December 9, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2011</t>
+  </si>
+  <si>
+    <t>great location! the shuttle is awesome-the guys are on time and they are very pleasant! room was super clean and a good size! i needed towels-they brought them up right away! the staff is amazing here and everyone is so kind! the continental breakfast just adds to the value! definitely stay here if you are stopping in houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r89026481-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>89026481</t>
+  </si>
+  <si>
+    <t>12/04/2010</t>
+  </si>
+  <si>
+    <t>A good stay</t>
+  </si>
+  <si>
+    <t>We stayed here twice, once for 5 nights, drove to Dallas, then returned again for 1 night.  For our first stay we booked a "king feature" room which is very comfy.  In addition to the standard easy chair, there is a love seat &amp; coffee table, also a wet bar.  If you need quiet, ask for an odd number room; our first stay in an even number room, I really noticed the road noise from Hwy 59. I was surprised that the bathrooms lack a fan &amp; night light. Without a fan, we had a problem in the first bathroom that door wouldn't stay open to let the steam out unless we blocked it open with the wastebasket; the second room was OK. The room lighting is just adequate. When the weather changed, we found out that the heater in our room didn't work.  We also reported that the sink drained very slowly. The front desk offered a different room, but we didn't want to move with only one night left.  I was surprised that they didn't adjust our bill at all, and expressed this sentiment to the front desk during our second stay.  Then they were very nice about offering compensation.  Breakfast offerings are the standard Holiday Inn Express, which is to say very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>We stayed here twice, once for 5 nights, drove to Dallas, then returned again for 1 night.  For our first stay we booked a "king feature" room which is very comfy.  In addition to the standard easy chair, there is a love seat &amp; coffee table, also a wet bar.  If you need quiet, ask for an odd number room; our first stay in an even number room, I really noticed the road noise from Hwy 59. I was surprised that the bathrooms lack a fan &amp; night light. Without a fan, we had a problem in the first bathroom that door wouldn't stay open to let the steam out unless we blocked it open with the wastebasket; the second room was OK. The room lighting is just adequate. When the weather changed, we found out that the heater in our room didn't work.  We also reported that the sink drained very slowly. The front desk offered a different room, but we didn't want to move with only one night left.  I was surprised that they didn't adjust our bill at all, and expressed this sentiment to the front desk during our second stay.  Then they were very nice about offering compensation.  Breakfast offerings are the standard Holiday Inn Express, which is to say very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r85784774-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>85784774</t>
+  </si>
+  <si>
+    <t>11/02/2010</t>
+  </si>
+  <si>
+    <t>Staff helpful and friendly</t>
+  </si>
+  <si>
+    <t>Nice clean hotel.  Coffee / Tea always available. Bed was comfortable.  The staff were great especially Logan who helped us fax some documents and gave us late check - out.   Nice little pool and decent breakfast provided.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r69951322-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>69951322</t>
+  </si>
+  <si>
+    <t>07/06/2010</t>
+  </si>
+  <si>
+    <t>AWESOME SERVICE</t>
+  </si>
+  <si>
+    <t>We had a business meeting in the area and this hotel was A+. From the check in to to Breakfast person all was awesome. Great find for the price.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r37615383-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>37615383</t>
+  </si>
+  <si>
+    <t>08/13/2009</t>
+  </si>
+  <si>
+    <t>Loved the pool.</t>
+  </si>
+  <si>
+    <t>We stayed there on a Friday night and the room was cleen and cool. The staff was helpful and pleasant. It was easy to reserve the room and the checkout was a breeze. We enjoyed the pool, and the nice area around it.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r26708057-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>26708057</t>
+  </si>
+  <si>
+    <t>03/23/2009</t>
+  </si>
+  <si>
+    <t>Pre-paid room given away. Hotel receptionist denied refund.</t>
+  </si>
+  <si>
+    <t>I booked a suite 2 wks in advance, via Holiday Inn's online registration website.  To obtain the rate quoted, this room had to be pre-paid.  When my husband &amp; I arrived at the hotel, the receptionist informed us the room was no longer available.  She then told us she had booked us a different room, but that this room was not a suite.  When we told her we needed a suite, due to a snoring issue, her only response was that a suite was not available (unless we wanted a smoking room.  I went in this room, and there was no way my husband or I could take the smell, as neither of us smoke, and the room reeked of smoke).  We told her that we would like our money back so that we could book a room at another hotel.  Even though we informed this receptionist that it was against the law to sell a room to two people, we were told it was not possible for her to refund the money we paid for this room (that was re-sold to someone else), as it was pre-paid and not refundable.  She also proceeded to tell us that we must have missed the fine print (a pop-up) which states they have the option to re-sell the room.  Pleezzzz, did she really think we would fall for this lie??  
+When we asked to speak to a manager, we were told no...I booked a suite 2 wks in advance, via Holiday Inn's online registration website.  To obtain the rate quoted, this room had to be pre-paid.  When my husband &amp; I arrived at the hotel, the receptionist informed us the room was no longer available.  She then told us she had booked us a different room, but that this room was not a suite.  When we told her we needed a suite, due to a snoring issue, her only response was that a suite was not available (unless we wanted a smoking room.  I went in this room, and there was no way my husband or I could take the smell, as neither of us smoke, and the room reeked of smoke).  We told her that we would like our money back so that we could book a room at another hotel.  Even though we informed this receptionist that it was against the law to sell a room to two people, we were told it was not possible for her to refund the money we paid for this room (that was re-sold to someone else), as it was pre-paid and not refundable.  She also proceeded to tell us that we must have missed the fine print (a pop-up) which states they have the option to re-sell the room.  Pleezzzz, did she really think we would fall for this lie??  When we asked to speak to a manager, we were told no manager was on site that night, but she ASSURED us that the mgr would tell us the same thing (the pre-paid money was not refundable) . YES, unbelievable!!  Not only did she give our room away, she refused to refund our money!!  The receptionist then offered to find us a room at another hotel and to drive us there (my sister had dropped us off at this hotel, and so we no longer had any transportation).  Thus, we booked a suite at Courtyard by Marriott.  This receptionist drove us there (however, she took us to the wrong hotel at 1st; fortunately, I asked her and my husband to wait outside to make sure the room was still available before she left).  Since we were at the wrong hotel, my husband had to put all the luggage back into Holiday Inn's van.  When the van's back door would not shut, this employee would not get out of the van to find out what was wrong, but kept ordering my husband to check this and that.  After 4 tries, he was finally able to close the door.   We called the Holiday Inn registration office when we arrived back home.  The operator called this hotel and was told that we had cancelled the room (the receptionist made it clear to us that she could enter in whatever notes she wanted into their computer system).  This operator was also told that the guests who were in the room the night before wanted to extend their stay, and so were given the room we had already paid for.  This operator told us that there was nothing she could do, but that a msg had been left w/ the mgr to call us on Mon.  He never called so I called the hotel.  Of course, as soon as they told him who was calling, he was not available.  I informed the receptionist that I was calling Visa immediately to file a fraud complaint.  During this call to Visa, I received a call from the hotel; however, no one left a msg.  When I called back, the receptionist told me the mgr informed her that he had credited our account.There was never an apology from any of these employees of Holiday Inn for the inconveniences they caused us (for ex., loss of sleep, angst, time spent trying to get this issue resolved, etc)., by giving our pre-paid room to another guest.  It was basically a "too bad, so sad" situation to them.  I have written a letter to their corporate office to let them know I will never book a room at another Holiday Inn, as it is apparent that booking a room, and even paying for it in advance, does not guarantee you will have a room when you arrive.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>I booked a suite 2 wks in advance, via Holiday Inn's online registration website.  To obtain the rate quoted, this room had to be pre-paid.  When my husband &amp; I arrived at the hotel, the receptionist informed us the room was no longer available.  She then told us she had booked us a different room, but that this room was not a suite.  When we told her we needed a suite, due to a snoring issue, her only response was that a suite was not available (unless we wanted a smoking room.  I went in this room, and there was no way my husband or I could take the smell, as neither of us smoke, and the room reeked of smoke).  We told her that we would like our money back so that we could book a room at another hotel.  Even though we informed this receptionist that it was against the law to sell a room to two people, we were told it was not possible for her to refund the money we paid for this room (that was re-sold to someone else), as it was pre-paid and not refundable.  She also proceeded to tell us that we must have missed the fine print (a pop-up) which states they have the option to re-sell the room.  Pleezzzz, did she really think we would fall for this lie??  
+When we asked to speak to a manager, we were told no...I booked a suite 2 wks in advance, via Holiday Inn's online registration website.  To obtain the rate quoted, this room had to be pre-paid.  When my husband &amp; I arrived at the hotel, the receptionist informed us the room was no longer available.  She then told us she had booked us a different room, but that this room was not a suite.  When we told her we needed a suite, due to a snoring issue, her only response was that a suite was not available (unless we wanted a smoking room.  I went in this room, and there was no way my husband or I could take the smell, as neither of us smoke, and the room reeked of smoke).  We told her that we would like our money back so that we could book a room at another hotel.  Even though we informed this receptionist that it was against the law to sell a room to two people, we were told it was not possible for her to refund the money we paid for this room (that was re-sold to someone else), as it was pre-paid and not refundable.  She also proceeded to tell us that we must have missed the fine print (a pop-up) which states they have the option to re-sell the room.  Pleezzzz, did she really think we would fall for this lie??  When we asked to speak to a manager, we were told no manager was on site that night, but she ASSURED us that the mgr would tell us the same thing (the pre-paid money was not refundable) . YES, unbelievable!!  Not only did she give our room away, she refused to refund our money!!  The receptionist then offered to find us a room at another hotel and to drive us there (my sister had dropped us off at this hotel, and so we no longer had any transportation).  Thus, we booked a suite at Courtyard by Marriott.  This receptionist drove us there (however, she took us to the wrong hotel at 1st; fortunately, I asked her and my husband to wait outside to make sure the room was still available before she left).  Since we were at the wrong hotel, my husband had to put all the luggage back into Holiday Inn's van.  When the van's back door would not shut, this employee would not get out of the van to find out what was wrong, but kept ordering my husband to check this and that.  After 4 tries, he was finally able to close the door.   We called the Holiday Inn registration office when we arrived back home.  The operator called this hotel and was told that we had cancelled the room (the receptionist made it clear to us that she could enter in whatever notes she wanted into their computer system).  This operator was also told that the guests who were in the room the night before wanted to extend their stay, and so were given the room we had already paid for.  This operator told us that there was nothing she could do, but that a msg had been left w/ the mgr to call us on Mon.  He never called so I called the hotel.  Of course, as soon as they told him who was calling, he was not available.  I informed the receptionist that I was calling Visa immediately to file a fraud complaint.  During this call to Visa, I received a call from the hotel; however, no one left a msg.  When I called back, the receptionist told me the mgr informed her that he had credited our account.There was never an apology from any of these employees of Holiday Inn for the inconveniences they caused us (for ex., loss of sleep, angst, time spent trying to get this issue resolved, etc)., by giving our pre-paid room to another guest.  It was basically a "too bad, so sad" situation to them.  I have written a letter to their corporate office to let them know I will never book a room at another Holiday Inn, as it is apparent that booking a room, and even paying for it in advance, does not guarantee you will have a room when you arrive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r24496623-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>24496623</t>
+  </si>
+  <si>
+    <t>02/12/2009</t>
+  </si>
+  <si>
+    <t>Happy with the Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>I had a late flight into IAH and was headed to Lufkin, TX.This hotel suited my needs, as it was about 15 minutes from the airport.  I drove a rental car but they do have a shuttle.  It is right off of 59 but quiet and the check in was efficient.  The front desk clerk was kind and pleasant and gave me exactly the room I wanted.There is a Denny's within walking distance, if you need a bite to eat and several shopping centers within a 5 minute drive.  The mattresses on the beds were not the newer ones that most of the Holiday Inns have now.  The breakfast area was not cleaned properly and when I went down, there were several tables that needed attention.  I found a clean table.  The staff walked by continuously and did not clear anything from the dirty tables...poor training.I would stay here again as it was convenient and easy to find.I am a Platinum Holiday Inn guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>I had a late flight into IAH and was headed to Lufkin, TX.This hotel suited my needs, as it was about 15 minutes from the airport.  I drove a rental car but they do have a shuttle.  It is right off of 59 but quiet and the check in was efficient.  The front desk clerk was kind and pleasant and gave me exactly the room I wanted.There is a Denny's within walking distance, if you need a bite to eat and several shopping centers within a 5 minute drive.  The mattresses on the beds were not the newer ones that most of the Holiday Inns have now.  The breakfast area was not cleaned properly and when I went down, there were several tables that needed attention.  I found a clean table.  The staff walked by continuously and did not clear anything from the dirty tables...poor training.I would stay here again as it was convenient and easy to find.I am a Platinum Holiday Inn guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r5883562-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5883562</t>
+  </si>
+  <si>
+    <t>09/26/2006</t>
+  </si>
+  <si>
+    <t>great service for a Priceline customer!</t>
+  </si>
+  <si>
+    <t>I booked this hotel on Priceline for a bid of $50 a night, a good but not fabulous deal, as the same room could have been booked on the hotel website for just over $80 a night.
+Altho I was a Priceline customer, the front desk was very polite and accomodating.  I was especially impressed that they located a microwave and fridge and brought them to my room for no additional charge!
+The property itself was nice enough, especially since I've only stayed in Holiday Inns and not the Express version.  I was expecting a worn out old property from the 60s, but no, it appeared to have been under 20 years old. The only iffy aspect I saw was the outdoor pool was an opaque shade of green not unlike the color of the "swamp water" cocktail served at Joe's Crab Shack (located about 2 miles south on hwy 59)
+There is every store and restaurant imaginable located within a few miles south on hwy 59.  When travelling on 59 you need to know exactly where you're going, however, because once you see the place you want to go, you will have already passed the exit for it and must go some miles and execute some fancy u turns in order to get back to your destination.  
+There is a Denny's right next door to the hotel which is quite convenient, however I think they take their phone off...I booked this hotel on Priceline for a bid of $50 a night, a good but not fabulous deal, as the same room could have been booked on the hotel website for just over $80 a night.Altho I was a Priceline customer, the front desk was very polite and accomodating.  I was especially impressed that they located a microwave and fridge and brought them to my room for no additional charge!The property itself was nice enough, especially since I've only stayed in Holiday Inns and not the Express version.  I was expecting a worn out old property from the 60s, but no, it appeared to have been under 20 years old. The only iffy aspect I saw was the outdoor pool was an opaque shade of green not unlike the color of the "swamp water" cocktail served at Joe's Crab Shack (located about 2 miles south on hwy 59)There is every store and restaurant imaginable located within a few miles south on hwy 59.  When travelling on 59 you need to know exactly where you're going, however, because once you see the place you want to go, you will have already passed the exit for it and must go some miles and execute some fancy u turns in order to get back to your destination.  There is a Denny's right next door to the hotel which is quite convenient, however I think they take their phone off the hook on Sunday mornings so it is impossible to call in an order to pick up on the sabbath.I would be delighted to get this hotel on Priceline again next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2006</t>
+  </si>
+  <si>
+    <t>I booked this hotel on Priceline for a bid of $50 a night, a good but not fabulous deal, as the same room could have been booked on the hotel website for just over $80 a night.
+Altho I was a Priceline customer, the front desk was very polite and accomodating.  I was especially impressed that they located a microwave and fridge and brought them to my room for no additional charge!
+The property itself was nice enough, especially since I've only stayed in Holiday Inns and not the Express version.  I was expecting a worn out old property from the 60s, but no, it appeared to have been under 20 years old. The only iffy aspect I saw was the outdoor pool was an opaque shade of green not unlike the color of the "swamp water" cocktail served at Joe's Crab Shack (located about 2 miles south on hwy 59)
+There is every store and restaurant imaginable located within a few miles south on hwy 59.  When travelling on 59 you need to know exactly where you're going, however, because once you see the place you want to go, you will have already passed the exit for it and must go some miles and execute some fancy u turns in order to get back to your destination.  
+There is a Denny's right next door to the hotel which is quite convenient, however I think they take their phone off...I booked this hotel on Priceline for a bid of $50 a night, a good but not fabulous deal, as the same room could have been booked on the hotel website for just over $80 a night.Altho I was a Priceline customer, the front desk was very polite and accomodating.  I was especially impressed that they located a microwave and fridge and brought them to my room for no additional charge!The property itself was nice enough, especially since I've only stayed in Holiday Inns and not the Express version.  I was expecting a worn out old property from the 60s, but no, it appeared to have been under 20 years old. The only iffy aspect I saw was the outdoor pool was an opaque shade of green not unlike the color of the "swamp water" cocktail served at Joe's Crab Shack (located about 2 miles south on hwy 59)There is every store and restaurant imaginable located within a few miles south on hwy 59.  When travelling on 59 you need to know exactly where you're going, however, because once you see the place you want to go, you will have already passed the exit for it and must go some miles and execute some fancy u turns in order to get back to your destination.  There is a Denny's right next door to the hotel which is quite convenient, however I think they take their phone off the hook on Sunday mornings so it is impossible to call in an order to pick up on the sabbath.I would be delighted to get this hotel on Priceline again next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r3606975-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3606975</t>
+  </si>
+  <si>
+    <t>06/22/2005</t>
+  </si>
+  <si>
+    <t>Everything was perfect!</t>
+  </si>
+  <si>
+    <t>One of the better Holiday Inn Express hotels.Very good room rate for that area of Houston.</t>
+  </si>
+  <si>
+    <t>June 2005</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1838,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1870,3586 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" t="s">
+        <v>111</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>112</v>
+      </c>
+      <c r="X8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>121</v>
+      </c>
+      <c r="X9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>153</v>
+      </c>
+      <c r="X13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>161</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>162</v>
+      </c>
+      <c r="X14" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>170</v>
+      </c>
+      <c r="X15" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>161</v>
+      </c>
+      <c r="O16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>178</v>
+      </c>
+      <c r="X16" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>186</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>187</v>
+      </c>
+      <c r="X17" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>186</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X20" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>214</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s">
+        <v>219</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>220</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>234</v>
+      </c>
+      <c r="O24" t="s">
+        <v>111</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>235</v>
+      </c>
+      <c r="X24" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>243</v>
+      </c>
+      <c r="O25" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>251</v>
+      </c>
+      <c r="J27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K27" t="s">
+        <v>253</v>
+      </c>
+      <c r="L27" t="s">
+        <v>254</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>255</v>
+      </c>
+      <c r="O27" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>256</v>
+      </c>
+      <c r="X27" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>264</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>265</v>
+      </c>
+      <c r="X28" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" t="s">
+        <v>272</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>273</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>274</v>
+      </c>
+      <c r="X29" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>277</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>278</v>
+      </c>
+      <c r="J30" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" t="s">
+        <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>281</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>273</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>282</v>
+      </c>
+      <c r="X30" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" t="s">
+        <v>288</v>
+      </c>
+      <c r="L31" t="s">
+        <v>289</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>290</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>291</v>
+      </c>
+      <c r="X31" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>299</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>300</v>
+      </c>
+      <c r="X32" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>304</v>
+      </c>
+      <c r="J33" t="s">
+        <v>305</v>
+      </c>
+      <c r="K33" t="s">
+        <v>306</v>
+      </c>
+      <c r="L33" t="s">
+        <v>307</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>308</v>
+      </c>
+      <c r="O33" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>309</v>
+      </c>
+      <c r="X33" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>312</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>313</v>
+      </c>
+      <c r="J34" t="s">
+        <v>314</v>
+      </c>
+      <c r="K34" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>317</v>
+      </c>
+      <c r="O34" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>318</v>
+      </c>
+      <c r="X34" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>322</v>
+      </c>
+      <c r="J35" t="s">
+        <v>323</v>
+      </c>
+      <c r="K35" t="s">
+        <v>324</v>
+      </c>
+      <c r="L35" t="s">
+        <v>325</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>326</v>
+      </c>
+      <c r="O35" t="s">
+        <v>82</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>327</v>
+      </c>
+      <c r="X35" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>331</v>
+      </c>
+      <c r="J36" t="s">
+        <v>332</v>
+      </c>
+      <c r="K36" t="s">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s">
+        <v>334</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>326</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>335</v>
+      </c>
+      <c r="X36" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>338</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>339</v>
+      </c>
+      <c r="J37" t="s">
+        <v>340</v>
+      </c>
+      <c r="K37" t="s">
+        <v>341</v>
+      </c>
+      <c r="L37" t="s">
+        <v>342</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>343</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>335</v>
+      </c>
+      <c r="X37" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>346</v>
+      </c>
+      <c r="J38" t="s">
+        <v>347</v>
+      </c>
+      <c r="K38" t="s">
+        <v>348</v>
+      </c>
+      <c r="L38" t="s">
+        <v>349</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>350</v>
+      </c>
+      <c r="O38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>351</v>
+      </c>
+      <c r="X38" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>354</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J39" t="s">
+        <v>356</v>
+      </c>
+      <c r="K39" t="s">
+        <v>357</v>
+      </c>
+      <c r="L39" t="s">
+        <v>358</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>351</v>
+      </c>
+      <c r="X39" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>360</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>361</v>
+      </c>
+      <c r="J40" t="s">
+        <v>362</v>
+      </c>
+      <c r="K40" t="s">
+        <v>363</v>
+      </c>
+      <c r="L40" t="s">
+        <v>364</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>365</v>
+      </c>
+      <c r="O40" t="s">
+        <v>111</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>351</v>
+      </c>
+      <c r="X40" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>367</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>368</v>
+      </c>
+      <c r="J41" t="s">
+        <v>369</v>
+      </c>
+      <c r="K41" t="s">
+        <v>370</v>
+      </c>
+      <c r="L41" t="s">
+        <v>371</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>372</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>373</v>
+      </c>
+      <c r="X41" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>376</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>377</v>
+      </c>
+      <c r="J42" t="s">
+        <v>378</v>
+      </c>
+      <c r="K42" t="s">
+        <v>379</v>
+      </c>
+      <c r="L42" t="s">
+        <v>380</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>372</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>381</v>
+      </c>
+      <c r="X42" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>384</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>385</v>
+      </c>
+      <c r="J43" t="s">
+        <v>386</v>
+      </c>
+      <c r="K43" t="s">
+        <v>387</v>
+      </c>
+      <c r="L43" t="s">
+        <v>388</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>372</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>389</v>
+      </c>
+      <c r="X43" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>392</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>393</v>
+      </c>
+      <c r="J44" t="s">
+        <v>394</v>
+      </c>
+      <c r="K44" t="s">
+        <v>395</v>
+      </c>
+      <c r="L44" t="s">
+        <v>396</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>372</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>397</v>
+      </c>
+      <c r="X44" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>399</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>400</v>
+      </c>
+      <c r="J45" t="s">
+        <v>401</v>
+      </c>
+      <c r="K45" t="s">
+        <v>402</v>
+      </c>
+      <c r="L45" t="s">
+        <v>403</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>404</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>405</v>
+      </c>
+      <c r="X45" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>408</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>409</v>
+      </c>
+      <c r="J46" t="s">
+        <v>410</v>
+      </c>
+      <c r="K46" t="s">
+        <v>411</v>
+      </c>
+      <c r="L46" t="s">
+        <v>412</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>413</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>414</v>
+      </c>
+      <c r="X46" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>417</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>418</v>
+      </c>
+      <c r="J47" t="s">
+        <v>419</v>
+      </c>
+      <c r="K47" t="s">
+        <v>420</v>
+      </c>
+      <c r="L47" t="s">
+        <v>421</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>422</v>
+      </c>
+      <c r="O47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>424</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>425</v>
+      </c>
+      <c r="J48" t="s">
+        <v>426</v>
+      </c>
+      <c r="K48" t="s">
+        <v>427</v>
+      </c>
+      <c r="L48" t="s">
+        <v>428</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>429</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>430</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>431</v>
+      </c>
+      <c r="J49" t="s">
+        <v>432</v>
+      </c>
+      <c r="K49" t="s">
+        <v>433</v>
+      </c>
+      <c r="L49" t="s">
+        <v>434</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>435</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>436</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>437</v>
+      </c>
+      <c r="J50" t="s">
+        <v>438</v>
+      </c>
+      <c r="K50" t="s">
+        <v>439</v>
+      </c>
+      <c r="L50" t="s">
+        <v>440</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>441</v>
+      </c>
+      <c r="O50" t="s">
+        <v>72</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>442</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>443</v>
+      </c>
+      <c r="J51" t="s">
+        <v>444</v>
+      </c>
+      <c r="K51" t="s">
+        <v>445</v>
+      </c>
+      <c r="L51" t="s">
+        <v>446</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>447</v>
+      </c>
+      <c r="O51" t="s">
+        <v>111</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>449</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>450</v>
+      </c>
+      <c r="J52" t="s">
+        <v>451</v>
+      </c>
+      <c r="K52" t="s">
+        <v>452</v>
+      </c>
+      <c r="L52" t="s">
+        <v>453</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>454</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>456</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>457</v>
+      </c>
+      <c r="J53" t="s">
+        <v>458</v>
+      </c>
+      <c r="K53" t="s">
+        <v>459</v>
+      </c>
+      <c r="L53" t="s">
+        <v>460</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>461</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>463</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>464</v>
+      </c>
+      <c r="J54" t="s">
+        <v>465</v>
+      </c>
+      <c r="K54" t="s">
+        <v>466</v>
+      </c>
+      <c r="L54" t="s">
+        <v>467</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>468</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_326.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_326.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="725">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r604722555-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223641</t>
+  </si>
+  <si>
+    <t>604722555</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>Hanan hanafi</t>
+  </si>
+  <si>
+    <t>Bugs, internet not working, dirty room, and bad stuff I am not satisfied and not happy!!Trying to leave but can't because the won't refund my money so I have to stay .Won't come back and advising everyone not to go there.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Bugs, internet not working, dirty room, and bad stuff I am not satisfied and not happy!!Trying to leave but can't because the won't refund my money so I have to stay .Won't come back and advising everyone not to go there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r590572936-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>590572936</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Before you cruise...</t>
+  </si>
+  <si>
+    <t>Before you get to Galveston, stop the night before and stay here!  We arrived at 11pm, slept like baby’s in a very comfortable room. The hotel itself was inviting with its setting amongst beautiful shade trees to hide the fact that you’re in a concrete jungle. We got up the next morning, able to sleep in, went to Cracker Barrel and then on to our ship for embarkation. It was a great, relaxing start to our vaca!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Before you get to Galveston, stop the night before and stay here!  We arrived at 11pm, slept like baby’s in a very comfortable room. The hotel itself was inviting with its setting amongst beautiful shade trees to hide the fact that you’re in a concrete jungle. We got up the next morning, able to sleep in, went to Cracker Barrel and then on to our ship for embarkation. It was a great, relaxing start to our vaca!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r580924738-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223641</t>
-  </si>
-  <si>
     <t>580924738</t>
   </si>
   <si>
@@ -174,9 +234,6 @@
     <t>I inspected the bed edges upon check in and found sign of bed bug feces. I continued looking and found bed bugs in different stages of growth. I caught one and took it to the front desk. The staff moved me to a room on the other end of the building. I went to Lowe’s and picked up glue traps. The new room was infested with a small biting insect. I showed the staff a gluetrap with 8-10 of the no-see-ums. I left the next day with almost a dozen bites.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -234,9 +291,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded July 28, 2017</t>
   </si>
   <si>
@@ -246,6 +300,42 @@
     <t>My wife and I were visiting friends in Houston and needed a reasonably priced hotel that served breakfast. We chose Holiday Inn express. The room is nice...the price was good...the breakfast was EXCELLENT!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r494580412-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494580412</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Family Triop</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights while visiting family nearby.  Our original reservations were at a nearby hotel that we did not like and decided to not stay at.  Thankfully Holiday Inn had rooms when we walked in.  The front desk was very nice in finding rooms for my family.  Th first night there was a large group of children running the halls and creating water puddles all over the lobby from running in and out  of the pool area.  This was taken care of pretty quickly by the staff.  We were also told that there had been recent car break ins at the hotel.  Although happy that they made us aware, it also made us question the area that we were staying.  We decided to stay anyhow because it was already 10:00 pm.  The group left the next day and the hotel became peaceful.  The hotel itself is acceptable but not as nice as some Holiday Inn's that we have stayed.  Our room and bed was very comfortable but I feel that the repairs that have been made, such as paint and drywall, could have been done a little cleaner.  Overall this choice is better than where we started this trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights while visiting family nearby.  Our original reservations were at a nearby hotel that we did not like and decided to not stay at.  Thankfully Holiday Inn had rooms when we walked in.  The front desk was very nice in finding rooms for my family.  Th first night there was a large group of children running the halls and creating water puddles all over the lobby from running in and out  of the pool area.  This was taken care of pretty quickly by the staff.  We were also told that there had been recent car break ins at the hotel.  Although happy that they made us aware, it also made us question the area that we were staying.  We decided to stay anyhow because it was already 10:00 pm.  The group left the next day and the hotel became peaceful.  The hotel itself is acceptable but not as nice as some Holiday Inn's that we have stayed.  Our room and bed was very comfortable but I feel that the repairs that have been made, such as paint and drywall, could have been done a little cleaner.  Overall this choice is better than where we started this trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r493112759-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493112759</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>A better place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We came to this hotel because the place we was at wasn't good. It was like night and day. The room smelled good and it was clean. Plus the place is very relaxing and the decor is very nice and updated. Staff is very nice and friendly. The pool is pretty great, good size also. A few bugs, but not bad. A good breakfast, a few choices more then most places. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r445102304-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -333,6 +423,42 @@
     <t>I stayed in this hotel on Sep 13, 2016. When I checked in, the staff in the front desk was so unfriendly and rude. No greetings, no smiles, no welcome bags, no apologize after 15min long waiting time. He even let a patron cut off the waiting line. The evaluator was down. The room I booked was a king bed, but this staff gave to me a queen bed without any notice. I noticed that after I entered the room. But I was too tired to ask for exchange, it was midnight then!!! The hotel guest room was not comfortable at all. There was mold smell in the room. The breakfast was boring, the bacon was cold. The yogurt's taste seemed it was expired. This is the worst hotel in Houston! If you want a pleasant trip, don't choose this cheapest hotel. Even pay $10 more, you can choose other IHG hotel with more service and more welcome!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r419117870-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419117870</t>
+  </si>
+  <si>
+    <t>Road warrior</t>
+  </si>
+  <si>
+    <t>Not a bad hotel but when they renovated I think they just painted and hung lights. While the rooms are not ugly, they are older and a little run down. I would stay again even with family. Just needs facility upgradesMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Not a bad hotel but when they renovated I think they just painted and hung lights. While the rooms are not ugly, they are older and a little run down. I would stay again even with family. Just needs facility upgradesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r413720482-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>413720482</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Handicapped Friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an IHG Rewards Club Member, I used my points I had collected for my at the Holiday Inn Express in Kingwood! Just right off Highway 59, the hotel is very convenient! Denny's is just next door and they just the friendliest staff ever! Our check in was fast and the evening clerk was friendly! The handicapped bathroom had extra handrails for my mom and the beds were comfortable! Breakfast had eggs, sausage and pancakes! Check out was a breeze and I did not have to pay for my room! Great rewards program! </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r403368224-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -351,9 +477,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded August 24, 2016</t>
   </si>
   <si>
@@ -405,6 +528,48 @@
     <t xml:space="preserve">Stayed here with some friends 7/9-7/10 and Josh was there to accommodate our needs. He really did go above and beyond. Definitely coming back to this location, or a different Holiday Inn Express in the future! </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r388541165-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388541165</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our flight from Houston to Nashville TN was cancelled due to severe weather so we booked one night at Holiday Inn, room 223 7min away from the airport we enjoyed our staying at this place they have complimentary breakfast and nice swimming pool cool hotel to stay at excellent service also they have a shuttle to the airport don't need to worry about paying a taxi. </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r381575803-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381575803</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Solomon is the greatest!!!</t>
+  </si>
+  <si>
+    <t>Well not a bad place to stay. We had a problem with our ac. We came to Kingwood for a powerlifting meet. So when we got back to the hotel &amp; the ac didn't work I was upset. Solomon at the front desk went out of his way to help us. Found us another room went got us a bed &amp; went out of his way for real. A great staff makes up for so much, because of the staff I will stay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Well not a bad place to stay. We had a problem with our ac. We came to Kingwood for a powerlifting meet. So when we got back to the hotel &amp; the ac didn't work I was upset. Solomon at the front desk went out of his way to help us. Found us another room went got us a bed &amp; went out of his way for real. A great staff makes up for so much, because of the staff I will stay here again!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r379709054-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -484,6 +649,57 @@
   </si>
   <si>
     <t>We've stayed at this hotel many times as it's quite convenient to our grandchildren and we collect IHG points. They had a low spot several years ago but are back at the bottom again.We just got back from there and there were several issues. First, upon arriving, folks who are the IHG club members are supposed to get something, either some sort of goodies or some extra club points. Nothing this visit.The second night we were there, we returned to our room to see a note left on the bed "Room cleaned by Traci". While she left a note, she neglected to leave any towels or toiletries. A trip the front desk was necessary at Midnight.The third night neither Traci nor anyone else had made up the room. It hadn't been entered that day by the staff. Another trip to the front desk for towels, etc.The next day we asked for the manager. The 'on duty' manager heard our story and offered us a $10 google play gift card.The final day they did actually clean the room.The rooms themselves are ok. Comfortable, lots of outets, wi-fi free. Since plumbing in the bathroom.Finally, the final touch. As you know if you frequent this chain, they advertise their cinnamon rolls. Not at this hotel (no yogurt either).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r335838373-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335838373</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An airline freebie   </t>
+  </si>
+  <si>
+    <t>UAL comped us here for the second night of a layover due to flight cancellations. To say that the quality of this hotel is in perfect alignment with the quality of UAL is right on the mark. The property is old and musty, there are stains everywhere, and the bathroom plumbing rattles. The constant drone of the interstate just outside the window completes the comparison. Stay away. MoreShow less</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded December 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2015</t>
+  </si>
+  <si>
+    <t>UAL comped us here for the second night of a layover due to flight cancellations. To say that the quality of this hotel is in perfect alignment with the quality of UAL is right on the mark. The property is old and musty, there are stains everywhere, and the bathroom plumbing rattles. The constant drone of the interstate just outside the window completes the comparison. Stay away. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r334295174-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334295174</t>
+  </si>
+  <si>
+    <t>12/21/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5 Stars </t>
+  </si>
+  <si>
+    <t>The price was very good, that's why my wife picked it.It's location was good, not to far from Deerbrook Mall. Not to far from the Golf Course(Where my in laws live) The room was clean and we'll maintained.The reception was nice as was the breakfast area and business center. All the receptionists that we encountered were very nice, even the night shift!! Breakfast was good for what it was but bacon easily pleases me. Housekeeping were superb.My wife loved it, my mother loved it.The one thing my daughter and I were dissapointed with was the pool area, it wasn't that nice compared to other hotels and was open for all to see into from the  car park.  I would return if the price was right. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded December 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2015</t>
+  </si>
+  <si>
+    <t>The price was very good, that's why my wife picked it.It's location was good, not to far from Deerbrook Mall. Not to far from the Golf Course(Where my in laws live) The room was clean and we'll maintained.The reception was nice as was the breakfast area and business center. All the receptionists that we encountered were very nice, even the night shift!! Breakfast was good for what it was but bacon easily pleases me. Housekeeping were superb.My wife loved it, my mother loved it.The one thing my daughter and I were dissapointed with was the pool area, it wasn't that nice compared to other hotels and was open for all to see into from the  car park.  I would return if the price was right. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r321490852-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
@@ -567,6 +783,48 @@
 It's unfortunate because the staff at this property are great, the location is great and it really could...The ONLY reason I gave this property three stars is the stellar staff working at the front desk. Kudos to Leah &amp; Paris- the unfortunate state of this property must make their job difficult. The property, appears to be in pretty good shape and recently renovated. The decor is decent, but the hallways smell musty and of mildew. Our first issue was that our room was on the fourth floor, however the elevator was broken and we had quite a lot of luggage. Paris kindly found us a room on the second floor, however, when we went in we found that there were towels all over the floor and one bath towel actually jammed in the toilet. We requested a different room, Paris was very apologetic and transferred us to a second room. Unfortunately, the smell of mold and mildew was so powerful in this room (room 226) that it was affecting my partner's asthma, and we had to leave the property altogether rather than chance an asthma attack. It appears that this hotel experienced some serious water damage at some point and the owners, rather than repairing the problem, chose instead to cover it up. The stench in room 226 and in the second floor hallway was really terrible. Not even close to what I am accustomed to with IHG properties. It's unfortunate because the staff at this property are great, the location is great and it really could be an attractive property. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r312207745-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>312207745</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Not for me.</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location. And I absolutely love Holiday Inn Expresses.. But this one was kind of a let down. As soon as you walk in the door you can tell this was, no doubt, an old building with a facelift. But not the best facelift. Bedding was nice but the bed was hard. Libby looked ok, but the ceiling was a collage of water stains. The floors looked clean... As clean as old carpet can be. In fact everything was very clean. Air conditioner worked well, but the cover to the control panel fell off the second I moved it. The shower definitely could have at least had an updated faucet fixture and knob. It was yellowed and slightly hard to work. Ultimately it was an averagely nice hotel.. Just kinda upsetting because of small things here and there. I feel, however, as for as the overall experience, the price could have been better. But still this isn't a bad choice. Just not the best. But then again. I'm not truly sure how this compares to the other hotels available in the area either. So definitely keep that in mind when reading my review! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location. And I absolutely love Holiday Inn Expresses.. But this one was kind of a let down. As soon as you walk in the door you can tell this was, no doubt, an old building with a facelift. But not the best facelift. Bedding was nice but the bed was hard. Libby looked ok, but the ceiling was a collage of water stains. The floors looked clean... As clean as old carpet can be. In fact everything was very clean. Air conditioner worked well, but the cover to the control panel fell off the second I moved it. The shower definitely could have at least had an updated faucet fixture and knob. It was yellowed and slightly hard to work. Ultimately it was an averagely nice hotel.. Just kinda upsetting because of small things here and there. I feel, however, as for as the overall experience, the price could have been better. But still this isn't a bad choice. Just not the best. But then again. I'm not truly sure how this compares to the other hotels available in the area either. So definitely keep that in mind when reading my review! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r303808787-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303808787</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t>I stay here 3 days a week for work.  It is clean, comfortable and close to all the dining and shopping you'll need.  It is also about $25.00 a night cheaper than other hotels near the airport that are in high crime areas.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r302946388-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -582,9 +840,6 @@
     <t>If you are allergic to mold or mildew, stay away from this property. I have stayed at many Holiday Inns and have never stayed at one with such low standards. I tried the king room. The bed was swooping down in the middle and the room smelled awful, like mold and mildew. Then they put me in another room down the hall, queen bed this time. I thought it might be better, smelled like air freshener. When I left and came back a couple of hours later, same smell.  I was to stay 2 weeks, but I could not even make it through the night. When I left early the next morning, I was sick. All mattress are very cheap, no padding, springs have no support. You just sink when you sit down. I do not understand the good reviews on this property at all. Although the staff if so very nice, it is a very smelly hotel. (An staff member told me it was the ACs, they were old)MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded August 25, 2015</t>
   </si>
   <si>
@@ -627,6 +882,45 @@
     <t>I was looking for a very CLEAN little hotel at a moderate price close to the medical arts building in Humble. This was the best choice! I requested  a double room for my sister and I. The adjoining door was really convient for us. The hotel was recently reburbished and everything was very very clean and smelled fresh. I never take my shoes off in any hotel room, but the carpet looked really clean. The beds were NOT covered with bedspreads, but lite comforters that they wash for each guest so ALL of the linins are fresh and clean. Bright white towels that were generous in size...Clean, modern bathroom.....It is a small hotel and the staff is accessable and friendly. Their breakfast was good with all of the normal selections, but there is a Dennys right next door and if you show them your key you get 15% off any of your meals! Get a room on the side away from the freeway and it will be quiet. The beds are really comfortable and the pillows were perfect. We were only there for a night, but I would stay there again in a heart beat. They staff really went over the top to make sure we were comfortable. I never met anyone with an attitude other then..."How can we serve you and make your stay more comfortable." The price wasa the same on Priceline and other sites like that as...I was looking for a very CLEAN little hotel at a moderate price close to the medical arts building in Humble. This was the best choice! I requested  a double room for my sister and I. The adjoining door was really convient for us. The hotel was recently reburbished and everything was very very clean and smelled fresh. I never take my shoes off in any hotel room, but the carpet looked really clean. The beds were NOT covered with bedspreads, but lite comforters that they wash for each guest so ALL of the linins are fresh and clean. Bright white towels that were generous in size...Clean, modern bathroom.....It is a small hotel and the staff is accessable and friendly. Their breakfast was good with all of the normal selections, but there is a Dennys right next door and if you show them your key you get 15% off any of your meals! Get a room on the side away from the freeway and it will be quiet. The beds are really comfortable and the pillows were perfect. We were only there for a night, but I would stay there again in a heart beat. They staff really went over the top to make sure we were comfortable. I never met anyone with an attitude other then..."How can we serve you and make your stay more comfortable." The price wasa the same on Priceline and other sites like that as the hotel...So call the hotel. ; ) More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r274884186-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274884186</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>What you at expect from a holiday inn..</t>
+  </si>
+  <si>
+    <t>This hotel is nice and clean, but my only complaint is that there were many kids unattended at the " complimentary breakfast " I know it is not free but because you paid doesn't give you the right to be dumb, most of the times they filled their plates to the top and  straight to the garbage and laugh. Yes they just look at it? We stayed longer than usual to show my kids how ugly their behavior was.Nothing wrong with the hotel or staff.But owners or managers please put a sign.                     no kids  allowed with out parents .              and that should be everywhere Wasting food just because ,is stupid MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This hotel is nice and clean, but my only complaint is that there were many kids unattended at the " complimentary breakfast " I know it is not free but because you paid doesn't give you the right to be dumb, most of the times they filled their plates to the top and  straight to the garbage and laugh. Yes they just look at it? We stayed longer than usual to show my kids how ugly their behavior was.Nothing wrong with the hotel or staff.But owners or managers please put a sign.                     no kids  allowed with out parents .              and that should be everywhere Wasting food just because ,is stupid More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r252778714-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252778714</t>
+  </si>
+  <si>
+    <t>02/05/2015</t>
+  </si>
+  <si>
+    <t>Friendly Caring Staff and a Clean Place</t>
+  </si>
+  <si>
+    <t>This place is near the airport and very convenient .  We walked in the door and was greeted by the night clerk a very friendly caring gentleman.  He gave us a warm welcome on a cold night.  The rooms were comfortable and very clean.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r250849191-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -687,6 +981,57 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r237968309-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237968309</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Not bad - clean and neat</t>
+  </si>
+  <si>
+    <t>We just got back from Houston.  We stayed at this Holiday Inn Express because it was so convienent.  We got the room we expected which was good.  The bed was comfortable.  The room was clean and neat.  Nothing over the top but what I expected.  The cleaning staff was very nice but when we returned to our room on Monday they had cleaned the room but left the door open.  That was not good.  The gentleman at the front desk Sunday night was very nice when we asked for a  recommendation on food delivery because we were just too tired to go out.  We had pizza delivered and he was spot on with his recommendation.  Another problem we had is that I wanted to print out our boarding passes for our flight home at the business center.  The toner was out of ink.  When I asked if they had more toner I was told "oh yeah it's been out for a day or two, that's been ordered".  That did not help me very much.  The room was clean as I said but the bathroom did not have an exhaust fan and the lighting, as in most hotel, was awful in the bathroom.  That makes it difficult to put on makeup.  The cinnamon buns in the morning were good.  The pancakes should be skipped.  Overall it is an okay place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded November 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2014</t>
+  </si>
+  <si>
+    <t>We just got back from Houston.  We stayed at this Holiday Inn Express because it was so convienent.  We got the room we expected which was good.  The bed was comfortable.  The room was clean and neat.  Nothing over the top but what I expected.  The cleaning staff was very nice but when we returned to our room on Monday they had cleaned the room but left the door open.  That was not good.  The gentleman at the front desk Sunday night was very nice when we asked for a  recommendation on food delivery because we were just too tired to go out.  We had pizza delivered and he was spot on with his recommendation.  Another problem we had is that I wanted to print out our boarding passes for our flight home at the business center.  The toner was out of ink.  When I asked if they had more toner I was told "oh yeah it's been out for a day or two, that's been ordered".  That did not help me very much.  The room was clean as I said but the bathroom did not have an exhaust fan and the lighting, as in most hotel, was awful in the bathroom.  That makes it difficult to put on makeup.  The cinnamon buns in the morning were good.  The pancakes should be skipped.  Overall it is an okay place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r233983444-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233983444</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Bedbugs</t>
+  </si>
+  <si>
+    <t>This hotel is infested with bedbugs.They changed my room when I found the bedbug crawling on bed. A night after the room change I noticed bug bites on my arm. Both of the rooms I stayed  had strong odor I didn't what it was at the time. I'm pretty sure now it was the smell of bug sprays. Even their workout room smelled horrible. Now I'm just praying I didn't inadvertently bring any bedbugs into my surroundings.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded October 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is infested with bedbugs.They changed my room when I found the bedbug crawling on bed. A night after the room change I noticed bug bites on my arm. Both of the rooms I stayed  had strong odor I didn't what it was at the time. I'm pretty sure now it was the smell of bug sprays. Even their workout room smelled horrible. Now I'm just praying I didn't inadvertently bring any bedbugs into my surroundings.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r231326760-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -756,6 +1101,57 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r223022144-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>223022144</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>Very Noisy - - Bring Ear Plugs</t>
+  </si>
+  <si>
+    <t>The only reason I can think of that of that keeps this place going is location to the medical center and college.  Although I was assured they had replace the windows so as to reduce road noise, we still need earplugs.  The road noise is huge.Staff was friendly, but not exceptional.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>The only reason I can think of that of that keeps this place going is location to the medical center and college.  Although I was assured they had replace the windows so as to reduce road noise, we still need earplugs.  The road noise is huge.Staff was friendly, but not exceptional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r211983868-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211983868</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>New but not clean</t>
+  </si>
+  <si>
+    <t>Due to a cancelled flight I needed an overnight room. This hotel at a total of $165 per night was the only available. On the surface it looks good, but when you look closer it needs lots of detail cleaning and finish. Hallway carpet not stretched properly, rickety elevator, dark bathrooms, outlet covers painted over and a creaky bed. Frustrating also that an airport shuttle is listed as an amenity but not available. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded July 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2014</t>
+  </si>
+  <si>
+    <t>Due to a cancelled flight I needed an overnight room. This hotel at a total of $165 per night was the only available. On the surface it looks good, but when you look closer it needs lots of detail cleaning and finish. Hallway carpet not stretched properly, rickety elevator, dark bathrooms, outlet covers painted over and a creaky bed. Frustrating also that an airport shuttle is listed as an amenity but not available. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r208610443-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -828,6 +1224,57 @@
     <t>My wife and I had layovers in Houston on a recent trip to Mexico.  We chose the Kingwood location to get a little distance from airport noise.  We were pleasantly surprised that a free airport shuttle was available, and the shuttle also dropped us off at a local restaurant for dinner.  The room was quite comfortable, and quiet, as it faced away from the highway.  Breakfast was typical of other HI Express locations we used.  I love the pancake machine!!All encounters with the staff were very pleasant!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r198462744-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198462744</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Poor service</t>
+  </si>
+  <si>
+    <t>We've stayed at this hotel frequently since it is close to our grandchildren. It seems to be going down hill. They just remodeled it and it looks ok. However the service attitude is lacking. When we checked in, we Fortunately there'were given a room that wasn't made up. The next day our room wasn't serviced despite out being out of the room all day.Requests for towels that evening were viewed apparently as an inconvenience. The manager the next day was dismissive of my observations.A few days later I got a request to put a reivew on the parent company's website (IHG). Instead of doing so I sent a description of the problems to IHG which said they pass them along to the facility's management. That was a month ago and I've had no response from them yet.Fortunately there's a Candlewood Suite facility a block away, so I can keep collecting points.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2014</t>
+  </si>
+  <si>
+    <t>We've stayed at this hotel frequently since it is close to our grandchildren. It seems to be going down hill. They just remodeled it and it looks ok. However the service attitude is lacking. When we checked in, we Fortunately there'were given a room that wasn't made up. The next day our room wasn't serviced despite out being out of the room all day.Requests for towels that evening were viewed apparently as an inconvenience. The manager the next day was dismissive of my observations.A few days later I got a request to put a reivew on the parent company's website (IHG). Instead of doing so I sent a description of the problems to IHG which said they pass them along to the facility's management. That was a month ago and I've had no response from them yet.Fortunately there's a Candlewood Suite facility a block away, so I can keep collecting points.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r197029946-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197029946</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>We stayed for just 2 nights and found the hotel very pleasant.  There was a free shuttle bus from and to the airport and when it wasn't being used on airport runs, the hotel was happy to take us to and collect us from the local shopping mall which was a real bonus.  There was free coffee and tea on tap all day which was great.  The free breakfast was fairly typical of what you would expect from a Holiday Inn Express and enjoyable.  There is a Denny's restaurant right next door which we used a few times which was up to the usual standard.  Staff were pleasant and friendly.  Unfortunately the pool area wasn't open which was a shame as we would have liked to have sat out.  Our rooms overlooked the highway and there is a fair bit of traffic noise, but it wasn't really a problem.  All in all an enjoyable stay, and if you are passing through the area, this is as good a place as any to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded March 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2014</t>
+  </si>
+  <si>
+    <t>We stayed for just 2 nights and found the hotel very pleasant.  There was a free shuttle bus from and to the airport and when it wasn't being used on airport runs, the hotel was happy to take us to and collect us from the local shopping mall which was a real bonus.  There was free coffee and tea on tap all day which was great.  The free breakfast was fairly typical of what you would expect from a Holiday Inn Express and enjoyable.  There is a Denny's restaurant right next door which we used a few times which was up to the usual standard.  Staff were pleasant and friendly.  Unfortunately the pool area wasn't open which was a shame as we would have liked to have sat out.  Our rooms overlooked the highway and there is a fair bit of traffic noise, but it wasn't really a problem.  All in all an enjoyable stay, and if you are passing through the area, this is as good a place as any to stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r195362940-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -843,9 +1290,6 @@
     <t>Helpful welcoming staff with complementary airport shuttle (unlike $20 round trip for one of your competitors). Extremely spacious suites with all facilities, coffee makers, fridge, etc. We booked the airport shuttle for 6.15am and breakfast started at 6, but they specially put it a bit early for us which is a nice attentive touch. This was an overnight flight layover on international transit, but we're likely to be doing something similar again, so would certainly come back here.MoreShow less</t>
   </si>
   <si>
-    <t>February 2014</t>
-  </si>
-  <si>
     <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded February 27, 2014</t>
   </si>
   <si>
@@ -904,6 +1348,69 @@
   </si>
   <si>
     <t>It looks like most of the construction has been completed and any remaining remodeling (curtains, beds, carpet) which is supposed to last until the end of the month shouldn't interfere with sleeping. In fact it was quiet all the time that I was at the hotel. The airport shuttle operates on an on needed basis between 5:45am - 10:00pm, so if you plan on using it, make sure to call the hotel to confirm! I didn't have a problem getting the shuttle from the airport, but I won't be able to use it to get to the airport as my flight leaves to early! The driver was very friendly, and quite talkative. When I checked in, there was a slight issue with my room being ready (I came prior to the check-in time). The worker was very contentious, courteous, and helpful. She got me into a different room without too much difficulty.The next day I asked about the airport shuttle and found out about the schedule. I asked about the next best way to get to the airport, and she "helpfully" replied 'taxi'. She did not offer any other options, nor did she offer the number to the taxi. This was a different front desk worker, and did not seem to understand the concept of customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r178049103-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178049103</t>
+  </si>
+  <si>
+    <t>09/21/2013</t>
+  </si>
+  <si>
+    <t>Don't attempt to use the airport shuttle!</t>
+  </si>
+  <si>
+    <t>We have a contract with the hotel for my company to be picked up thin half an hour or calling when we get to the airport.  Called and was told that the hotel is no longer honoring the contract, that the van would leave at :15 and:45 after the hour, did not matter that we would have to wait almost 45 minutes just to have the van arrive at the airport. The hotel is under renovation, so do not plan on seeping in, since the hammers start around 8am. Also no not plan on working out, since they are renovating the workout room for the next month!  The front desk said that there was some workout equipment in a meeting room, but did not know if it worked, and did nothing to check to see if it did.There are lots of hotels around the airport - choose a better one!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded September 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2013</t>
+  </si>
+  <si>
+    <t>We have a contract with the hotel for my company to be picked up thin half an hour or calling when we get to the airport.  Called and was told that the hotel is no longer honoring the contract, that the van would leave at :15 and:45 after the hour, did not matter that we would have to wait almost 45 minutes just to have the van arrive at the airport. The hotel is under renovation, so do not plan on seeping in, since the hammers start around 8am. Also no not plan on working out, since they are renovating the workout room for the next month!  The front desk said that there was some workout equipment in a meeting room, but did not know if it worked, and did nothing to check to see if it did.There are lots of hotels around the airport - choose a better one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r176768759-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176768759</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>Hotel has gone downhill, not up to HIE standards</t>
+  </si>
+  <si>
+    <t>I've submitted this review twice to the IHG website and they are not posting it!
+Upon arrival there was nobody at the front desk, after a couple of minutes I called out to have someone scurrying out of the office.  Was not greeted or given snacks as an IHG Rewards member.  The lobby was in need of maintenance, hole in the wall and some big structure holding a plate glass that was held together with tape.  
+The biggest issue was that there was a back door entrance that was not locked at 10 pm as the sign stated and was left unlocked into the night without the need to use a room key to enter!
+There was also some weird guy hanging out with the front desk ladies.  He was in shorts and barefoot and was chatting with them all evening (we were in and out several times) and was attempting to chat with the guests as well.
+The elevator was dirty, the bathroom floor was sticky.  The toilet appeared to be rigged, was raised up from the floor and leaning really far over. 
+The breakfast room was dirty, food was cold.  Pastries consisted of a box of donuts with the lid ripped off.  There was a closet open in the breakfast area with debris everywhere, and A/C vent open with insulation falling out.  No maintenance person in sight so not sure why the mess was left.
+We had to...I've submitted this review twice to the IHG website and they are not posting it!Upon arrival there was nobody at the front desk, after a couple of minutes I called out to have someone scurrying out of the office.  Was not greeted or given snacks as an IHG Rewards member.  The lobby was in need of maintenance, hole in the wall and some big structure holding a plate glass that was held together with tape.  The biggest issue was that there was a back door entrance that was not locked at 10 pm as the sign stated and was left unlocked into the night without the need to use a room key to enter!There was also some weird guy hanging out with the front desk ladies.  He was in shorts and barefoot and was chatting with them all evening (we were in and out several times) and was attempting to chat with the guests as well.The elevator was dirty, the bathroom floor was sticky.  The toilet appeared to be rigged, was raised up from the floor and leaning really far over. The breakfast room was dirty, food was cold.  Pastries consisted of a box of donuts with the lid ripped off.  There was a closet open in the breakfast area with debris everywhere, and A/C vent open with insulation falling out.  No maintenance person in sight so not sure why the mess was left.We had to park in the back and there was a cart overflowing with trash left there.  Not sure why they didn't take it to the dumpster but it was an eyesore.Will not stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>HIEKW, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded September 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2013</t>
+  </si>
+  <si>
+    <t>I've submitted this review twice to the IHG website and they are not posting it!
+Upon arrival there was nobody at the front desk, after a couple of minutes I called out to have someone scurrying out of the office.  Was not greeted or given snacks as an IHG Rewards member.  The lobby was in need of maintenance, hole in the wall and some big structure holding a plate glass that was held together with tape.  
+The biggest issue was that there was a back door entrance that was not locked at 10 pm as the sign stated and was left unlocked into the night without the need to use a room key to enter!
+There was also some weird guy hanging out with the front desk ladies.  He was in shorts and barefoot and was chatting with them all evening (we were in and out several times) and was attempting to chat with the guests as well.
+The elevator was dirty, the bathroom floor was sticky.  The toilet appeared to be rigged, was raised up from the floor and leaning really far over. 
+The breakfast room was dirty, food was cold.  Pastries consisted of a box of donuts with the lid ripped off.  There was a closet open in the breakfast area with debris everywhere, and A/C vent open with insulation falling out.  No maintenance person in sight so not sure why the mess was left.
+We had to...I've submitted this review twice to the IHG website and they are not posting it!Upon arrival there was nobody at the front desk, after a couple of minutes I called out to have someone scurrying out of the office.  Was not greeted or given snacks as an IHG Rewards member.  The lobby was in need of maintenance, hole in the wall and some big structure holding a plate glass that was held together with tape.  The biggest issue was that there was a back door entrance that was not locked at 10 pm as the sign stated and was left unlocked into the night without the need to use a room key to enter!There was also some weird guy hanging out with the front desk ladies.  He was in shorts and barefoot and was chatting with them all evening (we were in and out several times) and was attempting to chat with the guests as well.The elevator was dirty, the bathroom floor was sticky.  The toilet appeared to be rigged, was raised up from the floor and leaning really far over. The breakfast room was dirty, food was cold.  Pastries consisted of a box of donuts with the lid ripped off.  There was a closet open in the breakfast area with debris everywhere, and A/C vent open with insulation falling out.  No maintenance person in sight so not sure why the mess was left.We had to park in the back and there was a cart overflowing with trash left there.  Not sure why they didn't take it to the dumpster but it was an eyesore.Will not stay there again!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r170566291-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
@@ -987,6 +1494,48 @@
   </si>
   <si>
     <t>Most of my reviews are positive, but this one...not so much.  Due to a family member being in the hospital, we needed to stay close to the hospital. We had stayed at a holiday inn express before and it was one of the nicest places! The best I can say is that it was convenient. Renovations are underway, but it looks like they are taking their own sweet time. In the state that the hotel is in right now, I would not recommend it UNLESS you needed convince to the hospital.  there is a Candlewood Suites near too. I would try it next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r162670778-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162670778</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>Typical Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel in a very good location if you've got business or pleasure in Kingwood. There isn't much to differentiate it from other HI Express hotels, and that's a good thing. We stay there often since our grandchildren are nearby, and we've had many examples of the staff being helpful, giving upgrades.If you you need a restaurant there's a Denny's next-door. There aren't many hotels in the Kingwood area, so this is one to consider</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r157217939-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157217939</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>Bear in mind it is under going renovation and when its done it is going to be BEAUTIFUL..So if you can handle the construction its worth the visit.Rooms are big beds are comfy and the construction does not interfere with anything unless you are trying to sleep during the day.The staff are very nice and the breakfast area is nice has a work out room and outdoor pool.Would stay again if in the area.Lots of places close by to pick from to eat also.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arturo C C, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Bear in mind it is under going renovation and when its done it is going to be BEAUTIFUL..So if you can handle the construction its worth the visit.Rooms are big beds are comfy and the construction does not interfere with anything unless you are trying to sleep during the day.The staff are very nice and the breakfast area is nice has a work out room and outdoor pool.Would stay again if in the area.Lots of places close by to pick from to eat also.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r156014729-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
@@ -1065,6 +1614,45 @@
     <t>My boyfriend and I spent the weekend at this hotel two weeks ago.  The staff was friendly, the general manager very helpful, and the nightly price was extremely affordable.  The distance to and from the airport, and the airport shuttle was very helpful.  With a lot of experiences with hotels world-wide, I would say that this was a very pleasant surprise.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r145119453-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145119453</t>
+  </si>
+  <si>
+    <t>11/10/2012</t>
+  </si>
+  <si>
+    <t>Don't expect much</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because of a layover between flights. Rooms around Bush Int'l Airport are outrageously priced, this one was in the lower end and still ran $ 125.00 a night. It is not close to the airport, about a 20 minute ride by Shuttle which they provide. We called from the baggage carousel and had to wait about 25 minuted before the bus arrived. So make sure to call before you pick up your luggage, they don't show up automatically. The hotel is located on a very busy highway and unfortunately our room faced it. The noise never stopped. The bed was o.k., as always breakfast is included at the Express locations and it was standard fare. There is nothing around other than a hospital and a Denny's. To get a shuttle at the right time in the morning proved to be huge problem. The hotel had committed to bring a group of people to a location other than the airport and that meant there was no shuttle available to drop passengers at the airport. we had only a five minute window between requesting a shuttle and getting ready to board the shuttle, so breakfast went out the window. Again, they don't have a schedule for the airport shuttle, so make sure to inquire on time. They do not take reservations the night before, it's an ad hoc thing.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because of a layover between flights. Rooms around Bush Int'l Airport are outrageously priced, this one was in the lower end and still ran $ 125.00 a night. It is not close to the airport, about a 20 minute ride by Shuttle which they provide. We called from the baggage carousel and had to wait about 25 minuted before the bus arrived. So make sure to call before you pick up your luggage, they don't show up automatically. The hotel is located on a very busy highway and unfortunately our room faced it. The noise never stopped. The bed was o.k., as always breakfast is included at the Express locations and it was standard fare. There is nothing around other than a hospital and a Denny's. To get a shuttle at the right time in the morning proved to be huge problem. The hotel had committed to bring a group of people to a location other than the airport and that meant there was no shuttle available to drop passengers at the airport. we had only a five minute window between requesting a shuttle and getting ready to board the shuttle, so breakfast went out the window. Again, they don't have a schedule for the airport shuttle, so make sure to inquire on time. They do not take reservations the night before, it's an ad hoc thing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r144660029-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144660029</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>this location...Terrible!!</t>
+  </si>
+  <si>
+    <t>Hotel is dirty and the staff rude. room bathrooms are filthy . pubic hairs all over.  musty ,moldy ordors through out the hallways. desperately needs deep cleaning and renovations. also pay close attention to your credit cards transactions.  beware!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r143726216-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -1131,6 +1719,51 @@
     <t>My family and I recently stayed a week at this facility and had an wonderful experience.  The rooms were ready when we checked in, they were nice and clean, and larger than most.  The staff from the Manager, Arturo Canales, and Group Sales Manger, Linda Traylor, and the rest of the staff went above and beyond every day to make it a great stay.  The hotel was mostly occupied by AAU Track Athletes during this week - the pool and grass area by the pool were a great gathering place for these kids. I would stay here again if I am in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r137361158-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137361158</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>Clean room, friendly staff.</t>
+  </si>
+  <si>
+    <t>The absolute best thing about this property is the convenience of the shuttle service they provide to and from the airport.  It appears that this property has undergone some recent updating, my room had a smell of fresh paint but it wasn't too over powering.  The only food option within walking distance is next door at the Denny's.  Oh, if possible get a room that is not at the front of the property because the noise from the highway is loud at night.  Overall, no issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arturo C C, General Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded August 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2012</t>
+  </si>
+  <si>
+    <t>The absolute best thing about this property is the convenience of the shuttle service they provide to and from the airport.  It appears that this property has undergone some recent updating, my room had a smell of fresh paint but it wasn't too over powering.  The only food option within walking distance is next door at the Denny's.  Oh, if possible get a room that is not at the front of the property because the noise from the highway is loud at night.  Overall, no issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r134809018-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134809018</t>
+  </si>
+  <si>
+    <t>07/19/2012</t>
+  </si>
+  <si>
+    <t>Good location, but hotel needs work</t>
+  </si>
+  <si>
+    <t>We spent two nights in this hotel.The third floor's hall carpet smelled strongly of smoke, even though we were located in a non-smoking area of the hotel.  Thankfully, the room didn't smell smokey.When we arrived, our bathroom light was inoperative.  Since the bathroom door has a strong spring closer, it was imperative that the light worked.  It took maintenance two hours and several trips for more tools to change the ballast in the fluorescent light fixture.  The bed was soft and mushy ... the perfect prescription for a sore back.The cleanliness of the room was just adequate.  On the plus side, the front desk staff was friendly and helpful and the breakfast was better than most.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We spent two nights in this hotel.The third floor's hall carpet smelled strongly of smoke, even though we were located in a non-smoking area of the hotel.  Thankfully, the room didn't smell smokey.When we arrived, our bathroom light was inoperative.  Since the bathroom door has a strong spring closer, it was imperative that the light worked.  It took maintenance two hours and several trips for more tools to change the ballast in the fluorescent light fixture.  The bed was soft and mushy ... the perfect prescription for a sore back.The cleanliness of the room was just adequate.  On the plus side, the front desk staff was friendly and helpful and the breakfast was better than most.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r133215954-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -1146,9 +1779,6 @@
     <t>I came down here for attending conference, i stayed here for 11 nights. The hotel is wonderful. Staff was very very good and helping at the front desk, housekeeping staff also equally good, quiet place thouh there is a noisy freeway nextdoor. Good breakfast, Juices available all the day, Gym, swpool.Provided shuttle service (free) to nearest mall and airport. Overall it is quited good experience here. I advise visitiors ,sure this could be your place of stay next timeMoreShow less</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
     <t>Management response:Responded July 8, 2012</t>
   </si>
   <si>
@@ -1206,6 +1836,42 @@
     <t>We stay at this hotel each time we come to Houston. It is very quiet.  The staff are amazing, so welcoming and caring about their customers, also very helpful. The rooms are perfect, clean and beautiful. Breakfast offers various foods. The swimming pool is not too small and faces woods in the beautiful suburb  of Kingwood. There is a restaurant just beside the hotel. I recommend this hotel to any traveller and my friendsMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r132033721-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132033721</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>Great service for business travelers</t>
+  </si>
+  <si>
+    <t>Stayed here a few days on a business trip and would go again.  Great location right off the highway, but not noisy.  Room was clean and standard-sized, and had a microwave and mini-fridge, good water pressure in the shower, and a fast Internet connection.  There's also an in-hotel self-service laundry that came in handy.  Breakfast had variety with hot dishes on top of a good continental spread (muffins, spreads, juice, cereals).  The front desk was very helpful with some special requests I had on breaking out my bill at checkout, and the entire staff was very polite and professional.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here a few days on a business trip and would go again.  Great location right off the highway, but not noisy.  Room was clean and standard-sized, and had a microwave and mini-fridge, good water pressure in the shower, and a fast Internet connection.  There's also an in-hotel self-service laundry that came in handy.  Breakfast had variety with hot dishes on top of a good continental spread (muffins, spreads, juice, cereals).  The front desk was very helpful with some special requests I had on breaking out my bill at checkout, and the entire staff was very polite and professional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r132021399-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132021399</t>
+  </si>
+  <si>
+    <t>Excellent hotel, staff are amazing</t>
+  </si>
+  <si>
+    <t>I stayed at Houston-Kingwood for 3 nights. The shuttle service was amazing, they picked me up immediately after calling the front desk. The rooms are clean and the breakfast was nice to have each morning. The staff are very helpful and friendly. I would really recommend this hotel to any traveller.MoreShow less</t>
+  </si>
+  <si>
+    <t>HAMPDP, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded June 21, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at Houston-Kingwood for 3 nights. The shuttle service was amazing, they picked me up immediately after calling the front desk. The rooms are clean and the breakfast was nice to have each morning. The staff are very helpful and friendly. I would really recommend this hotel to any traveller.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r131688717-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -1221,9 +1887,6 @@
     <t>Was here for 2 nights on business.  Stayed in another similar hotel last time and wasn't impressed.  This is clean and nice enough.  Kind of sparse in the bedroom.  Breakfast OK.  So, not raving about it but not saying avoid it.  Staff was nice.  Price was very reasonable.MoreShow less</t>
   </si>
   <si>
-    <t>HAMPDP, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded June 21, 2012</t>
-  </si>
-  <si>
     <t>Was here for 2 nights on business.  Stayed in another similar hotel last time and wasn't impressed.  This is clean and nice enough.  Kind of sparse in the bedroom.  Breakfast OK.  So, not raving about it but not saying avoid it.  Staff was nice.  Price was very reasonable.More</t>
   </si>
   <si>
@@ -1281,6 +1944,57 @@
     <t>great location! the shuttle is awesome-the guys are on time and they are very pleasant! room was super clean and a good size! i needed towels-they brought them up right away! the staff is amazing here and everyone is so kind! the continental breakfast just adds to the value! definitely stay here if you are stopping in houston!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r119736339-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119736339</t>
+  </si>
+  <si>
+    <t>10/25/2011</t>
+  </si>
+  <si>
+    <t>SAFE-comfort &amp; clean</t>
+  </si>
+  <si>
+    <t>thank you to the staff of the Kingwood Location.I stay in Houston several times throughout the month.  The staff always remembers me and treats me with kindness as well as meet all of my requests.  It means alot to someone who travels often to be remembered, sleep well, and feel at home.  I can pick from several different locations in the Houston area, but I have picked Kingwood...IT is very SAFE and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>HAMPDP, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded May 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2012</t>
+  </si>
+  <si>
+    <t>thank you to the staff of the Kingwood Location.I stay in Houston several times throughout the month.  The staff always remembers me and treats me with kindness as well as meet all of my requests.  It means alot to someone who travels often to be remembered, sleep well, and feel at home.  I can pick from several different locations in the Houston area, but I have picked Kingwood...IT is very SAFE and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r97943295-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>97943295</t>
+  </si>
+  <si>
+    <t>02/25/2011</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>This hotel is a good value and is close to Houston Intercontinental airport. The only drawback is that they do not have a complimentary shuttle to the airport. Other than this the hotel is quite and is near good restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>HAMPDP, Manager at Holiday Inn Express Hotel &amp; Suites Houston/Kingwood, responded to this reviewResponded May 4, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2011</t>
+  </si>
+  <si>
+    <t>This hotel is a good value and is close to Houston Intercontinental airport. The only drawback is that they do not have a complimentary shuttle to the airport. Other than this the hotel is quite and is near good restaurants.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r89026481-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
@@ -1336,6 +2050,39 @@
   </si>
   <si>
     <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r68063937-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>68063937</t>
+  </si>
+  <si>
+    <t>06/20/2010</t>
+  </si>
+  <si>
+    <t>What a Brit expects from an American hotel!</t>
+  </si>
+  <si>
+    <t>As is usual in the US, for the $75 we paid per night the hotel was excellent. There is simply no comparison to Holiday Inn in the UK. Very clean, good facilities in the room, comfy bed, free WiFi (everywhere), free gym, free PC &amp; printer, breakfast OK, nice pool, friendy staff and coffee on-tap 24/7.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r67803364-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>67803364</t>
+  </si>
+  <si>
+    <t>06/17/2010</t>
+  </si>
+  <si>
+    <t>Charged after two weeks!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Extra towels were rationed to us as if the hotel only had 50 of themEven though there were apparent empty rooms during our one night stay-- the hotel claimed there were no rooms available to give us joining suites as requested.  Then to add insult to injury, two weeks later they charged my credit card $160 claiming we ruined a bed spread.  When I contacted them to investigate the charge the only thing they could say was by staying there I authorized the "extra" charges on my card even if it was two weeks later.  What???!!!!!  Stay away from this place!!!!!!!!!!!!!!!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r37615383-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
@@ -1398,6 +2145,39 @@
   </si>
   <si>
     <t>I had a late flight into IAH and was headed to Lufkin, TX.This hotel suited my needs, as it was about 15 minutes from the airport.  I drove a rental car but they do have a shuttle.  It is right off of 59 but quiet and the check in was efficient.  The front desk clerk was kind and pleasant and gave me exactly the room I wanted.There is a Denny's within walking distance, if you need a bite to eat and several shopping centers within a 5 minute drive.  The mattresses on the beds were not the newer ones that most of the Holiday Inns have now.  The breakfast area was not cleaned properly and when I went down, there were several tables that needed attention.  I found a clean table.  The staff walked by continuously and did not clear anything from the dirty tables...poor training.I would stay here again as it was convenient and easy to find.I am a Platinum Holiday Inn guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r23139413-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>23139413</t>
+  </si>
+  <si>
+    <t>12/31/2008</t>
+  </si>
+  <si>
+    <t>Loved it</t>
+  </si>
+  <si>
+    <t>Tip top.Great rooms, get the suite for 15$ more. Nice staff. Fine amenities. Windows actually will open for fresh air!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r21064794-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21064794</t>
+  </si>
+  <si>
+    <t>10/21/2008</t>
+  </si>
+  <si>
+    <t>good stay</t>
+  </si>
+  <si>
+    <t>was  a good stay bed was soft, but smelled smoke in the hallway and in my non smoking room, looked out window for 2 day saw dirt in the pool never cleaned. it was very dirty not clean enough to swim in,</t>
+  </si>
+  <si>
+    <t>October 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223641-r5883562-Holiday_Inn_Express_Hotel_Suites_Houston_Kingwood-Houston_Texas.html</t>
@@ -2040,13 +2820,13 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2058,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -2080,7 +2860,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2089,22 +2869,22 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
         <v>72</v>
@@ -2162,35 +2942,31 @@
         <v>80</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
         <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
         <v>83</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>84</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -2206,58 +2982,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>86</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>88</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>90</v>
       </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>91</v>
-      </c>
       <c r="O6" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
         <v>93</v>
-      </c>
-      <c r="X6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -2273,58 +3043,52 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
         <v>96</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>97</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>98</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>99</v>
-      </c>
-      <c r="L7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>101</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
       </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X7" t="s">
-        <v>103</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -2340,56 +3104,48 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
         <v>105</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" t="s">
-        <v>108</v>
-      </c>
-      <c r="L8" t="s">
-        <v>109</v>
-      </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>111</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>112</v>
-      </c>
-      <c r="X8" t="s">
-        <v>113</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -2405,7 +3161,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2414,49 +3170,47 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -2472,7 +3226,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2481,39 +3235,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -2529,58 +3293,58 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
         <v>129</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>130</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>131</v>
       </c>
-      <c r="K11" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11" t="s">
-        <v>133</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>134</v>
-      </c>
       <c r="O11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
@@ -2596,56 +3360,52 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
         <v>138</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" t="s">
-        <v>141</v>
-      </c>
-      <c r="L12" t="s">
-        <v>142</v>
-      </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -2661,7 +3421,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2670,49 +3430,39 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>153</v>
-      </c>
-      <c r="X13" t="s">
-        <v>154</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
@@ -2728,7 +3478,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2737,43 +3487,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
       </c>
-      <c r="P14" t="s"/>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
@@ -2789,7 +3543,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2798,43 +3552,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
         <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -2850,7 +3610,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2859,25 +3619,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
         <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2888,14 +3648,10 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>178</v>
-      </c>
-      <c r="X16" t="s">
-        <v>179</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
@@ -2911,7 +3667,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2920,49 +3676,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>187</v>
-      </c>
-      <c r="X17" t="s">
-        <v>188</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
@@ -2978,7 +3724,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2987,45 +3733,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>181</v>
+      </c>
+      <c r="X18" t="s">
+        <v>182</v>
+      </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
@@ -3041,7 +3785,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3050,35 +3794,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" t="s">
+        <v>112</v>
+      </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>190</v>
+      </c>
+      <c r="X19" t="s">
+        <v>191</v>
+      </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
@@ -3094,7 +3852,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3103,39 +3861,47 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>112</v>
+      </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="X20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Y20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
@@ -3151,7 +3917,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3160,43 +3926,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s">
         <v>53</v>
       </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" t="s">
+        <v>209</v>
+      </c>
       <c r="Y21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
@@ -3212,54 +3984,52 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s">
         <v>215</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>216</v>
-      </c>
-      <c r="J22" t="s">
-        <v>217</v>
-      </c>
-      <c r="K22" t="s">
-        <v>218</v>
-      </c>
-      <c r="L22" t="s">
-        <v>219</v>
-      </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s">
+        <v>217</v>
+      </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
@@ -3275,31 +4045,35 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" t="s">
         <v>221</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>222</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>223</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
         <v>224</v>
       </c>
-      <c r="L23" t="s">
-        <v>225</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
@@ -3310,13 +4084,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
+        <v>225</v>
+      </c>
+      <c r="X23" t="s">
         <v>226</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>227</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="24">
@@ -3332,56 +4106,52 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>229</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>230</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>231</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>232</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
         <v>233</v>
       </c>
-      <c r="M24" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" t="s">
-        <v>234</v>
-      </c>
       <c r="O24" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" t="s">
         <v>235</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>236</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25">
@@ -3397,54 +4167,52 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
         <v>238</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>239</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>240</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>241</v>
       </c>
-      <c r="L25" t="s">
-        <v>242</v>
-      </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s">
-        <v>111</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>242</v>
+      </c>
+      <c r="X25" t="s">
+        <v>243</v>
+      </c>
       <c r="Y25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
@@ -3460,7 +4228,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3469,49 +4237,43 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26" t="s">
+        <v>251</v>
+      </c>
       <c r="Y26" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
@@ -3527,7 +4289,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3536,25 +4298,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="O27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3566,13 +4328,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="X27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
@@ -3588,7 +4350,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3597,53 +4359,45 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O28" t="s">
         <v>72</v>
       </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S28" t="n">
         <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
         <v>265</v>
-      </c>
-      <c r="X28" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="29">
@@ -3659,62 +4413,58 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
         <v>268</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>269</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>270</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>271</v>
       </c>
-      <c r="L29" t="s">
-        <v>272</v>
-      </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="O29" t="s">
         <v>72</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
+        <v>272</v>
+      </c>
+      <c r="X29" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y29" t="s">
         <v>274</v>
-      </c>
-      <c r="X29" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="30">
@@ -3730,62 +4480,54 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" t="s">
         <v>277</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>278</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>279</v>
       </c>
-      <c r="K30" t="s">
-        <v>280</v>
-      </c>
-      <c r="L30" t="s">
-        <v>281</v>
-      </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>282</v>
-      </c>
-      <c r="X30" t="s">
-        <v>283</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
@@ -3801,62 +4543,44 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>281</v>
+      </c>
+      <c r="J31" t="s">
+        <v>282</v>
+      </c>
+      <c r="K31" t="s">
+        <v>283</v>
+      </c>
+      <c r="L31" t="s">
+        <v>284</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
         <v>285</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>286</v>
-      </c>
-      <c r="J31" t="s">
-        <v>287</v>
-      </c>
-      <c r="K31" t="s">
-        <v>288</v>
-      </c>
-      <c r="L31" t="s">
-        <v>289</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s">
-        <v>290</v>
-      </c>
-      <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
-      <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="s">
-        <v>291</v>
-      </c>
-      <c r="X31" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="32">
@@ -3872,7 +4596,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3881,53 +4605,39 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>300</v>
-      </c>
-      <c r="X32" t="s">
-        <v>301</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33">
@@ -3943,7 +4653,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3952,53 +4662,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="J33" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="K33" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="O33" t="s">
-        <v>82</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>309</v>
-      </c>
-      <c r="X33" t="s">
-        <v>310</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34">
@@ -4014,7 +4714,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4023,53 +4723,39 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="J34" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="K34" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
-      </c>
-      <c r="N34" t="s">
-        <v>317</v>
-      </c>
-      <c r="O34" t="s">
-        <v>111</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="X34" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="Y34" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35">
@@ -4085,7 +4771,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4094,53 +4780,43 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="J35" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="K35" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="O35" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>327</v>
-      </c>
-      <c r="X35" t="s">
-        <v>328</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36">
@@ -4156,7 +4832,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4165,53 +4841,45 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="J36" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="L36" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
         <v>3</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>335</v>
-      </c>
-      <c r="X36" t="s">
-        <v>336</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37">
@@ -4227,7 +4895,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4236,53 +4904,47 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="J37" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="K37" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="X37" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="Y37" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38">
@@ -4298,7 +4960,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4307,37 +4969,33 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="J38" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="K38" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="O38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
       <c r="R38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -4347,13 +5005,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="X38" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="Y38" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
@@ -4369,7 +5027,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4378,49 +5036,39 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="J39" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="K39" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s"/>
       <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>3</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="X39" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="Y39" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40">
@@ -4436,7 +5084,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4445,53 +5093,47 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="J40" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="K40" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="O40" t="s">
-        <v>111</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
+        <v>350</v>
+      </c>
+      <c r="X40" t="s">
         <v>351</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>352</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="41">
@@ -4507,7 +5149,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4516,22 +5158,22 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="J41" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="K41" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="O41" t="s">
         <v>53</v>
@@ -4539,12 +5181,8 @@
       <c r="P41" t="n">
         <v>5</v>
       </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
         <v>5</v>
       </c>
@@ -4555,14 +5193,10 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>373</v>
-      </c>
-      <c r="X41" t="s">
-        <v>374</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42">
@@ -4578,7 +5212,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4587,53 +5221,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="J42" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="K42" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="X42" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="Y42" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43">
@@ -4649,7 +5279,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4658,19 +5288,19 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="J43" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="K43" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="L43" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
         <v>372</v>
@@ -4678,33 +5308,23 @@
       <c r="O43" t="s">
         <v>72</v>
       </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="X43" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="Y43" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44">
@@ -4720,7 +5340,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4729,31 +5349,31 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="J44" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="K44" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="L44" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R44" t="n">
         <v>5</v>
@@ -4768,14 +5388,10 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>397</v>
-      </c>
-      <c r="X44" t="s">
-        <v>390</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45">
@@ -4791,7 +5407,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4800,53 +5416,43 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="J45" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="K45" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="L45" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="O45" t="s">
         <v>53</v>
       </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="X45" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="Y45" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46">
@@ -4862,7 +5468,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4871,37 +5477,37 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="J46" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="K46" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="L46" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -4911,13 +5517,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="X46" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="Y46" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47">
@@ -4933,7 +5539,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4942,49 +5548,53 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="J47" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="K47" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="L47" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>405</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
         <v>3</v>
       </c>
-      <c r="N47" t="s">
-        <v>422</v>
-      </c>
-      <c r="O47" t="s">
-        <v>72</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>406</v>
+      </c>
+      <c r="X47" t="s">
+        <v>407</v>
+      </c>
       <c r="Y47" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48">
@@ -5000,7 +5610,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5009,37 +5619,37 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="J48" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="K48" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="L48" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="O48" t="s">
         <v>53</v>
       </c>
       <c r="P48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -5048,10 +5658,14 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>414</v>
+      </c>
+      <c r="X48" t="s">
+        <v>415</v>
+      </c>
       <c r="Y48" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49">
@@ -5067,7 +5681,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5076,37 +5690,37 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="J49" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="K49" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="L49" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R49" t="n">
         <v>4</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
@@ -5115,10 +5729,14 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>422</v>
+      </c>
+      <c r="X49" t="s">
+        <v>423</v>
+      </c>
       <c r="Y49" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50">
@@ -5134,7 +5752,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5143,22 +5761,22 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="J50" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="K50" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="L50" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="O50" t="s">
         <v>72</v>
@@ -5167,25 +5785,29 @@
         <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>430</v>
+      </c>
+      <c r="X50" t="s">
+        <v>431</v>
+      </c>
       <c r="Y50" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51">
@@ -5201,7 +5823,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5210,47 +5832,53 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="J51" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="K51" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="L51" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="O51" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
       </c>
-      <c r="Q51" t="s"/>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
       <c r="R51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>439</v>
+      </c>
+      <c r="X51" t="s">
+        <v>440</v>
+      </c>
       <c r="Y51" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52">
@@ -5266,58 +5894,52 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
+        <v>442</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>443</v>
+      </c>
+      <c r="J52" t="s">
+        <v>444</v>
+      </c>
+      <c r="K52" t="s">
+        <v>445</v>
+      </c>
+      <c r="L52" t="s">
+        <v>446</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>447</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>448</v>
+      </c>
+      <c r="X52" t="s">
         <v>449</v>
       </c>
-      <c r="G52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="Y52" t="s">
         <v>450</v>
-      </c>
-      <c r="J52" t="s">
-        <v>451</v>
-      </c>
-      <c r="K52" t="s">
-        <v>452</v>
-      </c>
-      <c r="L52" t="s">
-        <v>453</v>
-      </c>
-      <c r="M52" t="n">
-        <v>4</v>
-      </c>
-      <c r="N52" t="s">
-        <v>454</v>
-      </c>
-      <c r="O52" t="s">
-        <v>53</v>
-      </c>
-      <c r="P52" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>4</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>4</v>
-      </c>
-      <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>5</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="53">
@@ -5333,7 +5955,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5342,49 +5964,53 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="J53" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K53" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L53" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>456</v>
+      </c>
+      <c r="X53" t="s">
+        <v>457</v>
+      </c>
       <c r="Y53" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54">
@@ -5400,56 +6026,2536 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
+        <v>459</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>460</v>
+      </c>
+      <c r="J54" t="s">
+        <v>461</v>
+      </c>
+      <c r="K54" t="s">
+        <v>462</v>
+      </c>
+      <c r="L54" t="s">
         <v>463</v>
       </c>
-      <c r="G54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" t="s">
-        <v>47</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
         <v>464</v>
       </c>
-      <c r="J54" t="s">
-        <v>465</v>
-      </c>
-      <c r="K54" t="s">
-        <v>466</v>
-      </c>
-      <c r="L54" t="s">
-        <v>467</v>
-      </c>
-      <c r="M54" t="n">
-        <v>5</v>
-      </c>
-      <c r="N54" t="s">
-        <v>468</v>
-      </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>465</v>
+      </c>
+      <c r="X54" t="s">
+        <v>466</v>
+      </c>
       <c r="Y54" t="s">
         <v>467</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>468</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>469</v>
+      </c>
+      <c r="J55" t="s">
+        <v>470</v>
+      </c>
+      <c r="K55" t="s">
+        <v>471</v>
+      </c>
+      <c r="L55" t="s">
+        <v>472</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>473</v>
+      </c>
+      <c r="O55" t="s">
+        <v>112</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>474</v>
+      </c>
+      <c r="X55" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>477</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>478</v>
+      </c>
+      <c r="J56" t="s">
+        <v>479</v>
+      </c>
+      <c r="K56" t="s">
+        <v>480</v>
+      </c>
+      <c r="L56" t="s">
+        <v>481</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>482</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>483</v>
+      </c>
+      <c r="X56" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>486</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>487</v>
+      </c>
+      <c r="J57" t="s">
+        <v>488</v>
+      </c>
+      <c r="K57" t="s">
+        <v>489</v>
+      </c>
+      <c r="L57" t="s">
+        <v>490</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>491</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>492</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>493</v>
+      </c>
+      <c r="J58" t="s">
+        <v>494</v>
+      </c>
+      <c r="K58" t="s">
+        <v>495</v>
+      </c>
+      <c r="L58" t="s">
+        <v>496</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>491</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>497</v>
+      </c>
+      <c r="X58" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>500</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>501</v>
+      </c>
+      <c r="J59" t="s">
+        <v>502</v>
+      </c>
+      <c r="K59" t="s">
+        <v>503</v>
+      </c>
+      <c r="L59" t="s">
+        <v>504</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>505</v>
+      </c>
+      <c r="O59" t="s">
+        <v>112</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>506</v>
+      </c>
+      <c r="X59" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>509</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>510</v>
+      </c>
+      <c r="J60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K60" t="s">
+        <v>512</v>
+      </c>
+      <c r="L60" t="s">
+        <v>513</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>505</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>514</v>
+      </c>
+      <c r="X60" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>517</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>518</v>
+      </c>
+      <c r="J61" t="s">
+        <v>519</v>
+      </c>
+      <c r="K61" t="s">
+        <v>520</v>
+      </c>
+      <c r="L61" t="s">
+        <v>521</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>522</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>514</v>
+      </c>
+      <c r="X61" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>524</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>525</v>
+      </c>
+      <c r="J62" t="s">
+        <v>526</v>
+      </c>
+      <c r="K62" t="s">
+        <v>527</v>
+      </c>
+      <c r="L62" t="s">
+        <v>528</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>529</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>531</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>532</v>
+      </c>
+      <c r="J63" t="s">
+        <v>533</v>
+      </c>
+      <c r="K63" t="s">
+        <v>534</v>
+      </c>
+      <c r="L63" t="s">
+        <v>535</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>536</v>
+      </c>
+      <c r="O63" t="s">
+        <v>72</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>537</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>538</v>
+      </c>
+      <c r="J64" t="s">
+        <v>539</v>
+      </c>
+      <c r="K64" t="s">
+        <v>540</v>
+      </c>
+      <c r="L64" t="s">
+        <v>541</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>542</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>543</v>
+      </c>
+      <c r="X64" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>546</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>547</v>
+      </c>
+      <c r="J65" t="s">
+        <v>548</v>
+      </c>
+      <c r="K65" t="s">
+        <v>549</v>
+      </c>
+      <c r="L65" t="s">
+        <v>550</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>543</v>
+      </c>
+      <c r="X65" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>552</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>553</v>
+      </c>
+      <c r="J66" t="s">
+        <v>554</v>
+      </c>
+      <c r="K66" t="s">
+        <v>555</v>
+      </c>
+      <c r="L66" t="s">
+        <v>556</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>557</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>543</v>
+      </c>
+      <c r="X66" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>559</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>560</v>
+      </c>
+      <c r="J67" t="s">
+        <v>561</v>
+      </c>
+      <c r="K67" t="s">
+        <v>562</v>
+      </c>
+      <c r="L67" t="s">
+        <v>563</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>557</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>564</v>
+      </c>
+      <c r="X67" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>567</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>568</v>
+      </c>
+      <c r="J68" t="s">
+        <v>569</v>
+      </c>
+      <c r="K68" t="s">
+        <v>570</v>
+      </c>
+      <c r="L68" t="s">
+        <v>571</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>572</v>
+      </c>
+      <c r="O68" t="s">
+        <v>72</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>564</v>
+      </c>
+      <c r="X68" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>574</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>575</v>
+      </c>
+      <c r="J69" t="s">
+        <v>576</v>
+      </c>
+      <c r="K69" t="s">
+        <v>577</v>
+      </c>
+      <c r="L69" t="s">
+        <v>578</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>536</v>
+      </c>
+      <c r="O69" t="s">
+        <v>72</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>579</v>
+      </c>
+      <c r="X69" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>582</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>583</v>
+      </c>
+      <c r="J70" t="s">
+        <v>584</v>
+      </c>
+      <c r="K70" t="s">
+        <v>585</v>
+      </c>
+      <c r="L70" t="s">
+        <v>586</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>536</v>
+      </c>
+      <c r="O70" t="s">
+        <v>72</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>587</v>
+      </c>
+      <c r="X70" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>590</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>591</v>
+      </c>
+      <c r="J71" t="s">
+        <v>592</v>
+      </c>
+      <c r="K71" t="s">
+        <v>593</v>
+      </c>
+      <c r="L71" t="s">
+        <v>594</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>536</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>595</v>
+      </c>
+      <c r="X71" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>598</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>599</v>
+      </c>
+      <c r="J72" t="s">
+        <v>600</v>
+      </c>
+      <c r="K72" t="s">
+        <v>601</v>
+      </c>
+      <c r="L72" t="s">
+        <v>602</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>536</v>
+      </c>
+      <c r="O72" t="s">
+        <v>72</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>595</v>
+      </c>
+      <c r="X72" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>604</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>605</v>
+      </c>
+      <c r="J73" t="s">
+        <v>600</v>
+      </c>
+      <c r="K73" t="s">
+        <v>606</v>
+      </c>
+      <c r="L73" t="s">
+        <v>607</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>536</v>
+      </c>
+      <c r="O73" t="s">
+        <v>72</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>608</v>
+      </c>
+      <c r="X73" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>610</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>611</v>
+      </c>
+      <c r="J74" t="s">
+        <v>612</v>
+      </c>
+      <c r="K74" t="s">
+        <v>613</v>
+      </c>
+      <c r="L74" t="s">
+        <v>614</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>536</v>
+      </c>
+      <c r="O74" t="s">
+        <v>72</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>608</v>
+      </c>
+      <c r="X74" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>616</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>617</v>
+      </c>
+      <c r="J75" t="s">
+        <v>618</v>
+      </c>
+      <c r="K75" t="s">
+        <v>619</v>
+      </c>
+      <c r="L75" t="s">
+        <v>620</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>621</v>
+      </c>
+      <c r="O75" t="s">
+        <v>72</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>622</v>
+      </c>
+      <c r="X75" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>625</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>626</v>
+      </c>
+      <c r="J76" t="s">
+        <v>627</v>
+      </c>
+      <c r="K76" t="s">
+        <v>628</v>
+      </c>
+      <c r="L76" t="s">
+        <v>629</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>630</v>
+      </c>
+      <c r="O76" t="s">
+        <v>72</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>631</v>
+      </c>
+      <c r="X76" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>634</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>635</v>
+      </c>
+      <c r="J77" t="s">
+        <v>636</v>
+      </c>
+      <c r="K77" t="s">
+        <v>637</v>
+      </c>
+      <c r="L77" t="s">
+        <v>638</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>630</v>
+      </c>
+      <c r="O77" t="s">
+        <v>72</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>639</v>
+      </c>
+      <c r="X77" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>642</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>643</v>
+      </c>
+      <c r="J78" t="s">
+        <v>644</v>
+      </c>
+      <c r="K78" t="s">
+        <v>645</v>
+      </c>
+      <c r="L78" t="s">
+        <v>646</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>647</v>
+      </c>
+      <c r="O78" t="s">
+        <v>72</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>648</v>
+      </c>
+      <c r="X78" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>651</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>652</v>
+      </c>
+      <c r="J79" t="s">
+        <v>653</v>
+      </c>
+      <c r="K79" t="s">
+        <v>654</v>
+      </c>
+      <c r="L79" t="s">
+        <v>655</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>656</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>658</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>659</v>
+      </c>
+      <c r="J80" t="s">
+        <v>660</v>
+      </c>
+      <c r="K80" t="s">
+        <v>661</v>
+      </c>
+      <c r="L80" t="s">
+        <v>662</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>663</v>
+      </c>
+      <c r="O80" t="s">
+        <v>72</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>664</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>665</v>
+      </c>
+      <c r="J81" t="s">
+        <v>666</v>
+      </c>
+      <c r="K81" t="s">
+        <v>667</v>
+      </c>
+      <c r="L81" t="s">
+        <v>668</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>669</v>
+      </c>
+      <c r="O81" t="s">
+        <v>72</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>670</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>671</v>
+      </c>
+      <c r="J82" t="s">
+        <v>672</v>
+      </c>
+      <c r="K82" t="s">
+        <v>673</v>
+      </c>
+      <c r="L82" t="s">
+        <v>674</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>675</v>
+      </c>
+      <c r="O82" t="s">
+        <v>72</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>676</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>677</v>
+      </c>
+      <c r="J83" t="s">
+        <v>678</v>
+      </c>
+      <c r="K83" t="s">
+        <v>679</v>
+      </c>
+      <c r="L83" t="s">
+        <v>680</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>675</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>681</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>682</v>
+      </c>
+      <c r="J84" t="s">
+        <v>683</v>
+      </c>
+      <c r="K84" t="s">
+        <v>684</v>
+      </c>
+      <c r="L84" t="s">
+        <v>685</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>686</v>
+      </c>
+      <c r="O84" t="s">
+        <v>63</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>687</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>688</v>
+      </c>
+      <c r="J85" t="s">
+        <v>689</v>
+      </c>
+      <c r="K85" t="s">
+        <v>690</v>
+      </c>
+      <c r="L85" t="s">
+        <v>691</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>692</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>694</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>695</v>
+      </c>
+      <c r="J86" t="s">
+        <v>696</v>
+      </c>
+      <c r="K86" t="s">
+        <v>697</v>
+      </c>
+      <c r="L86" t="s">
+        <v>698</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>699</v>
+      </c>
+      <c r="O86" t="s">
+        <v>72</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>701</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>702</v>
+      </c>
+      <c r="J87" t="s">
+        <v>703</v>
+      </c>
+      <c r="K87" t="s">
+        <v>704</v>
+      </c>
+      <c r="L87" t="s">
+        <v>705</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>706</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>707</v>
+      </c>
+      <c r="J88" t="s">
+        <v>708</v>
+      </c>
+      <c r="K88" t="s">
+        <v>709</v>
+      </c>
+      <c r="L88" t="s">
+        <v>710</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>711</v>
+      </c>
+      <c r="O88" t="s">
+        <v>112</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>712</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>713</v>
+      </c>
+      <c r="J89" t="s">
+        <v>714</v>
+      </c>
+      <c r="K89" t="s">
+        <v>715</v>
+      </c>
+      <c r="L89" t="s">
+        <v>716</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>717</v>
+      </c>
+      <c r="O89" t="s">
+        <v>72</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>39002</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>719</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>720</v>
+      </c>
+      <c r="J90" t="s">
+        <v>721</v>
+      </c>
+      <c r="K90" t="s">
+        <v>722</v>
+      </c>
+      <c r="L90" t="s">
+        <v>723</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>724</v>
+      </c>
+      <c r="O90" t="s">
+        <v>72</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>723</v>
       </c>
     </row>
   </sheetData>
